--- a/app/src/main/res/raw/updated.xlsx
+++ b/app/src/main/res/raw/updated.xlsx
@@ -67,9 +67,6 @@
     <t>Payment Terms(in days)</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>CIN</t>
   </si>
   <si>
@@ -154,24 +151,15 @@
     <t>Bank Name</t>
   </si>
   <si>
-    <t xml:space="preserve">PUNJAB AND SIND BANK </t>
-  </si>
-  <si>
     <t>Taxable Amount(After Discount)</t>
   </si>
   <si>
     <t>Account No.</t>
   </si>
   <si>
-    <t>10321100000181</t>
-  </si>
-  <si>
     <t>IFS Code</t>
   </si>
   <si>
-    <t>PSIB0000324</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -332,6 +320,18 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>PAYMENT_TERM</t>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+  </si>
+  <si>
+    <t>IFSC_CODE</t>
+  </si>
+  <si>
+    <t>ACC_NUMBER</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,78 +984,114 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1107,32 +1143,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,8 +1435,8 @@
   </sheetPr>
   <dimension ref="A1:CG92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY75" sqref="AY75:CF77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK60" sqref="AK60:AO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1937,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1971,7 +1989,7 @@
       <c r="BG6" s="21"/>
       <c r="BH6" s="21"/>
       <c r="BI6" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="BJ6" s="31"/>
       <c r="BK6" s="31"/>
@@ -2149,7 +2167,7 @@
       <c r="BG8" s="21"/>
       <c r="BH8" s="21"/>
       <c r="BI8" s="34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="BJ8" s="35"/>
       <c r="BK8" s="35"/>
@@ -2362,7 +2380,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3017,7 +3035,7 @@
       <c r="BG18" s="21"/>
       <c r="BH18" s="21"/>
       <c r="BI18" s="34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BJ18" s="35"/>
       <c r="BK18" s="35"/>
@@ -3195,7 +3213,7 @@
       <c r="BG20" s="29"/>
       <c r="BH20" s="29"/>
       <c r="BI20" s="31" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="BJ20" s="31"/>
       <c r="BK20" s="31"/>
@@ -3225,7 +3243,7 @@
       <c r="B21" s="27"/>
       <c r="C21" s="21"/>
       <c r="D21" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -3656,7 +3674,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="5"/>
       <c r="D27" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -3698,7 +3716,7 @@
       <c r="AP27" s="37"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS27" s="39"/>
       <c r="AT27" s="39"/>
@@ -3965,7 +3983,7 @@
       <c r="AV30" s="37"/>
       <c r="AW30" s="37"/>
       <c r="AX30" s="41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AY30" s="32"/>
       <c r="AZ30" s="32"/>
@@ -4013,7 +4031,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
@@ -4348,7 +4366,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="5"/>
       <c r="D35" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
@@ -4357,7 +4375,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
@@ -4569,7 +4587,7 @@
       <c r="AW37" s="37"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AZ37" s="44"/>
       <c r="BA37" s="44"/>
@@ -4618,7 +4636,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
@@ -5087,7 +5105,7 @@
       <c r="AW43" s="37"/>
       <c r="AX43" s="5"/>
       <c r="AY43" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AZ43" s="46"/>
       <c r="BA43" s="46"/>
@@ -5167,7 +5185,7 @@
       <c r="AP44" s="37"/>
       <c r="AQ44" s="5"/>
       <c r="AR44" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS44" s="40"/>
       <c r="AT44" s="40"/>
@@ -5383,7 +5401,7 @@
     <row r="47" spans="2:84" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
@@ -5392,7 +5410,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
@@ -5404,7 +5422,7 @@
       <c r="R47" s="40"/>
       <c r="S47" s="5"/>
       <c r="T47" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
@@ -5437,7 +5455,7 @@
       <c r="AW47" s="37"/>
       <c r="AX47" s="5"/>
       <c r="AY47" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ47" s="46"/>
       <c r="BA47" s="46"/>
@@ -5446,7 +5464,7 @@
       <c r="BD47" s="5"/>
       <c r="BE47" s="5"/>
       <c r="BF47" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BG47" s="40"/>
       <c r="BH47" s="40"/>
@@ -5519,7 +5537,7 @@
       <c r="AP48" s="37"/>
       <c r="AQ48" s="5"/>
       <c r="AR48" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS48" s="40"/>
       <c r="AT48" s="40"/>
@@ -5651,7 +5669,7 @@
       <c r="B50" s="15"/>
       <c r="C50" s="5"/>
       <c r="D50" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
@@ -5660,7 +5678,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
@@ -5695,7 +5713,7 @@
       <c r="AP50" s="37"/>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS50" s="40"/>
       <c r="AT50" s="40"/>
@@ -5703,7 +5721,7 @@
       <c r="AV50" s="37"/>
       <c r="AW50" s="37"/>
       <c r="AX50" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AY50" s="40"/>
       <c r="AZ50" s="40"/>
@@ -5953,7 +5971,7 @@
       <c r="AO53" s="37"/>
       <c r="AP53" s="37"/>
       <c r="AQ53" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR53" s="29"/>
       <c r="AS53" s="29"/>
@@ -5963,7 +5981,7 @@
       <c r="AW53" s="29"/>
       <c r="AX53" s="29"/>
       <c r="AY53" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ53" s="49"/>
       <c r="BA53" s="49"/>
@@ -5972,7 +5990,7 @@
       <c r="BD53" s="49"/>
       <c r="BE53" s="5"/>
       <c r="BF53" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BG53" s="29"/>
       <c r="BH53" s="29"/>
@@ -6230,7 +6248,7 @@
     </row>
     <row r="58" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
@@ -6238,7 +6256,7 @@
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
@@ -6255,12 +6273,12 @@
       <c r="T58" s="52"/>
       <c r="U58" s="52"/>
       <c r="V58" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W58" s="52"/>
       <c r="X58" s="52"/>
       <c r="Y58" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z58" s="52"/>
       <c r="AA58" s="52"/>
@@ -6269,21 +6287,21 @@
       <c r="AD58" s="52"/>
       <c r="AE58" s="52"/>
       <c r="AF58" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG58" s="52"/>
       <c r="AH58" s="52"/>
       <c r="AI58" s="52"/>
       <c r="AJ58" s="52"/>
       <c r="AK58" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL58" s="52"/>
       <c r="AM58" s="52"/>
       <c r="AN58" s="52"/>
       <c r="AO58" s="52"/>
       <c r="AP58" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AQ58" s="52"/>
       <c r="AR58" s="52"/>
@@ -6291,7 +6309,7 @@
       <c r="AT58" s="52"/>
       <c r="AU58" s="52"/>
       <c r="AV58" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AW58" s="52"/>
       <c r="AX58" s="52"/>
@@ -6310,7 +6328,7 @@
       <c r="BK58" s="52"/>
       <c r="BL58" s="52"/>
       <c r="BM58" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BN58" s="59"/>
       <c r="BO58" s="59"/>
@@ -6320,7 +6338,7 @@
       <c r="BS58" s="59"/>
       <c r="BT58" s="59"/>
       <c r="BU58" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BV58" s="52"/>
       <c r="BW58" s="52"/>
@@ -6384,7 +6402,7 @@
       <c r="AT59" s="52"/>
       <c r="AU59" s="52"/>
       <c r="AV59" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AW59" s="52"/>
       <c r="AX59" s="52"/>
@@ -6392,7 +6410,7 @@
       <c r="AZ59" s="52"/>
       <c r="BA59" s="52"/>
       <c r="BB59" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BC59" s="52"/>
       <c r="BD59" s="52"/>
@@ -6405,11 +6423,11 @@
       <c r="BK59" s="52"/>
       <c r="BL59" s="52"/>
       <c r="BM59" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BN59" s="52"/>
       <c r="BO59" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BP59" s="52"/>
       <c r="BQ59" s="52"/>
@@ -6432,7 +6450,7 @@
     </row>
     <row r="60" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B60" s="69"/>
       <c r="C60" s="69"/>
@@ -6440,7 +6458,7 @@
       <c r="E60" s="69"/>
       <c r="F60" s="69"/>
       <c r="G60" s="70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H60" s="71"/>
       <c r="I60" s="71"/>
@@ -6457,12 +6475,12 @@
       <c r="T60" s="71"/>
       <c r="U60" s="71"/>
       <c r="V60" s="72" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="W60" s="73"/>
       <c r="X60" s="73"/>
       <c r="Y60" s="72" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Z60" s="73"/>
       <c r="AA60" s="73"/>
@@ -6470,22 +6488,22 @@
       <c r="AC60" s="73"/>
       <c r="AD60" s="73"/>
       <c r="AE60" s="73"/>
-      <c r="AF60" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG60" s="71"/>
-      <c r="AH60" s="71"/>
-      <c r="AI60" s="71"/>
-      <c r="AJ60" s="71"/>
-      <c r="AK60" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL60" s="56"/>
-      <c r="AM60" s="56"/>
-      <c r="AN60" s="56"/>
-      <c r="AO60" s="56"/>
+      <c r="AF60" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG60" s="75"/>
+      <c r="AH60" s="75"/>
+      <c r="AI60" s="75"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL60" s="128"/>
+      <c r="AM60" s="128"/>
+      <c r="AN60" s="128"/>
+      <c r="AO60" s="129"/>
       <c r="AP60" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AQ60" s="56"/>
       <c r="AR60" s="56"/>
@@ -6493,7 +6511,7 @@
       <c r="AT60" s="56"/>
       <c r="AU60" s="56"/>
       <c r="AV60" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AW60" s="54"/>
       <c r="AX60" s="54"/>
@@ -6501,7 +6519,7 @@
       <c r="AZ60" s="54"/>
       <c r="BA60" s="54"/>
       <c r="BB60" s="55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BC60" s="56"/>
       <c r="BD60" s="56"/>
@@ -6514,11 +6532,11 @@
       <c r="BK60" s="56"/>
       <c r="BL60" s="56"/>
       <c r="BM60" s="53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="BN60" s="54"/>
       <c r="BO60" s="55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BP60" s="56"/>
       <c r="BQ60" s="56"/>
@@ -6526,7 +6544,7 @@
       <c r="BS60" s="56"/>
       <c r="BT60" s="56"/>
       <c r="BU60" s="57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="BV60" s="58"/>
       <c r="BW60" s="58"/>
@@ -6543,7 +6561,7 @@
     </row>
     <row r="61" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="61"/>
       <c r="C61" s="61"/>
@@ -6584,24 +6602,24 @@
       <c r="AL61" s="62"/>
       <c r="AM61" s="62"/>
       <c r="AN61" s="62"/>
-      <c r="AO61" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP61" s="107"/>
-      <c r="AQ61" s="107"/>
-      <c r="AR61" s="107"/>
-      <c r="AS61" s="107"/>
-      <c r="AT61" s="107"/>
-      <c r="AU61" s="107"/>
-      <c r="AV61" s="107"/>
-      <c r="AW61" s="107"/>
-      <c r="AX61" s="107"/>
-      <c r="AY61" s="107"/>
-      <c r="AZ61" s="107"/>
-      <c r="BA61" s="107"/>
-      <c r="BB61" s="107"/>
+      <c r="AO61" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP61" s="119"/>
+      <c r="AQ61" s="119"/>
+      <c r="AR61" s="119"/>
+      <c r="AS61" s="119"/>
+      <c r="AT61" s="119"/>
+      <c r="AU61" s="119"/>
+      <c r="AV61" s="119"/>
+      <c r="AW61" s="119"/>
+      <c r="AX61" s="119"/>
+      <c r="AY61" s="119"/>
+      <c r="AZ61" s="119"/>
+      <c r="BA61" s="119"/>
+      <c r="BB61" s="119"/>
       <c r="BC61" s="63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="BD61" s="64"/>
       <c r="BE61" s="64"/>
@@ -6616,7 +6634,7 @@
       <c r="BN61" s="65"/>
       <c r="BO61" s="65"/>
       <c r="BP61" s="63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BQ61" s="64"/>
       <c r="BR61" s="64"/>
@@ -6624,7 +6642,7 @@
       <c r="BT61" s="64"/>
       <c r="BU61" s="64"/>
       <c r="BV61" s="63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BW61" s="64"/>
       <c r="BX61" s="64"/>
@@ -6663,67 +6681,67 @@
       <c r="Y62" s="17"/>
       <c r="Z62" s="17"/>
       <c r="AA62" s="18"/>
-      <c r="AB62" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC62" s="108"/>
-      <c r="AD62" s="108"/>
-      <c r="AE62" s="108"/>
-      <c r="AF62" s="108"/>
-      <c r="AG62" s="108"/>
-      <c r="AH62" s="108"/>
-      <c r="AI62" s="108"/>
-      <c r="AJ62" s="108"/>
-      <c r="AK62" s="108"/>
-      <c r="AL62" s="108"/>
-      <c r="AM62" s="108"/>
-      <c r="AN62" s="108"/>
-      <c r="AO62" s="108"/>
-      <c r="AP62" s="108"/>
-      <c r="AQ62" s="108"/>
-      <c r="AR62" s="108"/>
-      <c r="AS62" s="108"/>
-      <c r="AT62" s="108"/>
-      <c r="AU62" s="108"/>
-      <c r="AV62" s="108"/>
-      <c r="AW62" s="108"/>
-      <c r="AX62" s="108"/>
-      <c r="AY62" s="109"/>
-      <c r="AZ62" s="110"/>
-      <c r="BA62" s="110"/>
-      <c r="BB62" s="110"/>
-      <c r="BC62" s="110"/>
-      <c r="BD62" s="110"/>
-      <c r="BE62" s="110"/>
-      <c r="BF62" s="110"/>
-      <c r="BG62" s="110"/>
-      <c r="BH62" s="110"/>
-      <c r="BI62" s="110"/>
-      <c r="BJ62" s="110"/>
-      <c r="BK62" s="110"/>
-      <c r="BL62" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM62" s="98"/>
-      <c r="BN62" s="98"/>
-      <c r="BO62" s="98"/>
-      <c r="BP62" s="98"/>
-      <c r="BQ62" s="98"/>
-      <c r="BR62" s="98"/>
-      <c r="BS62" s="98"/>
-      <c r="BT62" s="98"/>
-      <c r="BU62" s="98"/>
-      <c r="BV62" s="98"/>
-      <c r="BW62" s="98"/>
-      <c r="BX62" s="98"/>
-      <c r="BY62" s="98"/>
-      <c r="BZ62" s="98"/>
-      <c r="CA62" s="98"/>
-      <c r="CB62" s="99"/>
-      <c r="CC62" s="99"/>
-      <c r="CD62" s="99"/>
-      <c r="CE62" s="99"/>
-      <c r="CF62" s="99"/>
+      <c r="AB62" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="120"/>
+      <c r="AE62" s="120"/>
+      <c r="AF62" s="120"/>
+      <c r="AG62" s="120"/>
+      <c r="AH62" s="120"/>
+      <c r="AI62" s="120"/>
+      <c r="AJ62" s="120"/>
+      <c r="AK62" s="120"/>
+      <c r="AL62" s="120"/>
+      <c r="AM62" s="120"/>
+      <c r="AN62" s="120"/>
+      <c r="AO62" s="120"/>
+      <c r="AP62" s="120"/>
+      <c r="AQ62" s="120"/>
+      <c r="AR62" s="120"/>
+      <c r="AS62" s="120"/>
+      <c r="AT62" s="120"/>
+      <c r="AU62" s="120"/>
+      <c r="AV62" s="120"/>
+      <c r="AW62" s="120"/>
+      <c r="AX62" s="120"/>
+      <c r="AY62" s="121"/>
+      <c r="AZ62" s="122"/>
+      <c r="BA62" s="122"/>
+      <c r="BB62" s="122"/>
+      <c r="BC62" s="122"/>
+      <c r="BD62" s="122"/>
+      <c r="BE62" s="122"/>
+      <c r="BF62" s="122"/>
+      <c r="BG62" s="122"/>
+      <c r="BH62" s="122"/>
+      <c r="BI62" s="122"/>
+      <c r="BJ62" s="122"/>
+      <c r="BK62" s="122"/>
+      <c r="BL62" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM62" s="110"/>
+      <c r="BN62" s="110"/>
+      <c r="BO62" s="110"/>
+      <c r="BP62" s="110"/>
+      <c r="BQ62" s="110"/>
+      <c r="BR62" s="110"/>
+      <c r="BS62" s="110"/>
+      <c r="BT62" s="110"/>
+      <c r="BU62" s="110"/>
+      <c r="BV62" s="110"/>
+      <c r="BW62" s="110"/>
+      <c r="BX62" s="110"/>
+      <c r="BY62" s="110"/>
+      <c r="BZ62" s="110"/>
+      <c r="CA62" s="110"/>
+      <c r="CB62" s="111"/>
+      <c r="CC62" s="111"/>
+      <c r="CD62" s="111"/>
+      <c r="CE62" s="111"/>
+      <c r="CF62" s="111"/>
     </row>
     <row r="63" spans="1:85" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="17"/>
@@ -6750,63 +6768,63 @@
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
       <c r="AA63" s="17"/>
-      <c r="AB63" s="97"/>
-      <c r="AC63" s="97"/>
-      <c r="AD63" s="97"/>
-      <c r="AE63" s="97"/>
-      <c r="AF63" s="97"/>
-      <c r="AG63" s="97"/>
-      <c r="AH63" s="97"/>
-      <c r="AI63" s="97"/>
-      <c r="AJ63" s="97"/>
-      <c r="AK63" s="97"/>
-      <c r="AL63" s="97"/>
-      <c r="AM63" s="97"/>
-      <c r="AN63" s="97"/>
-      <c r="AO63" s="97"/>
-      <c r="AP63" s="97"/>
-      <c r="AQ63" s="97"/>
-      <c r="AR63" s="97"/>
-      <c r="AS63" s="97"/>
-      <c r="AT63" s="97"/>
-      <c r="AU63" s="97"/>
-      <c r="AV63" s="97"/>
-      <c r="AW63" s="97"/>
-      <c r="AX63" s="97"/>
-      <c r="AY63" s="100"/>
-      <c r="AZ63" s="101"/>
-      <c r="BA63" s="101"/>
-      <c r="BB63" s="101"/>
-      <c r="BC63" s="101"/>
-      <c r="BD63" s="101"/>
-      <c r="BE63" s="101"/>
-      <c r="BF63" s="101"/>
-      <c r="BG63" s="101"/>
-      <c r="BH63" s="101"/>
-      <c r="BI63" s="101"/>
-      <c r="BJ63" s="101"/>
-      <c r="BK63" s="101"/>
-      <c r="BL63" s="101"/>
-      <c r="BM63" s="101"/>
-      <c r="BN63" s="101"/>
-      <c r="BO63" s="101"/>
-      <c r="BP63" s="101"/>
-      <c r="BQ63" s="101"/>
-      <c r="BR63" s="101"/>
-      <c r="BS63" s="101"/>
-      <c r="BT63" s="101"/>
-      <c r="BU63" s="101"/>
-      <c r="BV63" s="101"/>
-      <c r="BW63" s="101"/>
-      <c r="BX63" s="101"/>
-      <c r="BY63" s="101"/>
-      <c r="BZ63" s="101"/>
-      <c r="CA63" s="101"/>
-      <c r="CB63" s="102"/>
-      <c r="CC63" s="102"/>
-      <c r="CD63" s="102"/>
-      <c r="CE63" s="102"/>
-      <c r="CF63" s="102"/>
+      <c r="AB63" s="108"/>
+      <c r="AC63" s="108"/>
+      <c r="AD63" s="108"/>
+      <c r="AE63" s="108"/>
+      <c r="AF63" s="108"/>
+      <c r="AG63" s="108"/>
+      <c r="AH63" s="108"/>
+      <c r="AI63" s="108"/>
+      <c r="AJ63" s="108"/>
+      <c r="AK63" s="108"/>
+      <c r="AL63" s="108"/>
+      <c r="AM63" s="108"/>
+      <c r="AN63" s="108"/>
+      <c r="AO63" s="108"/>
+      <c r="AP63" s="108"/>
+      <c r="AQ63" s="108"/>
+      <c r="AR63" s="108"/>
+      <c r="AS63" s="108"/>
+      <c r="AT63" s="108"/>
+      <c r="AU63" s="108"/>
+      <c r="AV63" s="108"/>
+      <c r="AW63" s="108"/>
+      <c r="AX63" s="108"/>
+      <c r="AY63" s="112"/>
+      <c r="AZ63" s="113"/>
+      <c r="BA63" s="113"/>
+      <c r="BB63" s="113"/>
+      <c r="BC63" s="113"/>
+      <c r="BD63" s="113"/>
+      <c r="BE63" s="113"/>
+      <c r="BF63" s="113"/>
+      <c r="BG63" s="113"/>
+      <c r="BH63" s="113"/>
+      <c r="BI63" s="113"/>
+      <c r="BJ63" s="113"/>
+      <c r="BK63" s="113"/>
+      <c r="BL63" s="113"/>
+      <c r="BM63" s="113"/>
+      <c r="BN63" s="113"/>
+      <c r="BO63" s="113"/>
+      <c r="BP63" s="113"/>
+      <c r="BQ63" s="113"/>
+      <c r="BR63" s="113"/>
+      <c r="BS63" s="113"/>
+      <c r="BT63" s="113"/>
+      <c r="BU63" s="113"/>
+      <c r="BV63" s="113"/>
+      <c r="BW63" s="113"/>
+      <c r="BX63" s="113"/>
+      <c r="BY63" s="113"/>
+      <c r="BZ63" s="113"/>
+      <c r="CA63" s="113"/>
+      <c r="CB63" s="114"/>
+      <c r="CC63" s="114"/>
+      <c r="CD63" s="114"/>
+      <c r="CE63" s="114"/>
+      <c r="CF63" s="114"/>
     </row>
     <row r="64" spans="1:85" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="17"/>
@@ -6833,65 +6851,65 @@
       <c r="Y64" s="17"/>
       <c r="Z64" s="17"/>
       <c r="AA64" s="17"/>
-      <c r="AB64" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC64" s="97"/>
-      <c r="AD64" s="97"/>
-      <c r="AE64" s="97"/>
-      <c r="AF64" s="97"/>
-      <c r="AG64" s="97"/>
-      <c r="AH64" s="97"/>
-      <c r="AI64" s="97"/>
-      <c r="AJ64" s="97"/>
-      <c r="AK64" s="97"/>
-      <c r="AL64" s="97"/>
-      <c r="AM64" s="97"/>
-      <c r="AN64" s="97"/>
-      <c r="AO64" s="97"/>
-      <c r="AP64" s="97"/>
-      <c r="AQ64" s="97"/>
-      <c r="AR64" s="97"/>
-      <c r="AS64" s="97"/>
-      <c r="AT64" s="97"/>
-      <c r="AU64" s="97"/>
-      <c r="AV64" s="97"/>
-      <c r="AW64" s="97"/>
-      <c r="AX64" s="97"/>
-      <c r="AY64" s="84"/>
-      <c r="AZ64" s="84"/>
-      <c r="BA64" s="84"/>
-      <c r="BB64" s="84"/>
-      <c r="BC64" s="84"/>
-      <c r="BD64" s="84"/>
-      <c r="BE64" s="84"/>
-      <c r="BF64" s="84"/>
-      <c r="BG64" s="84"/>
-      <c r="BH64" s="84"/>
-      <c r="BI64" s="84"/>
-      <c r="BJ64" s="84"/>
-      <c r="BK64" s="84"/>
-      <c r="BL64" s="84"/>
-      <c r="BM64" s="84"/>
-      <c r="BN64" s="84"/>
-      <c r="BO64" s="84"/>
-      <c r="BP64" s="84"/>
-      <c r="BQ64" s="84"/>
-      <c r="BR64" s="84"/>
-      <c r="BS64" s="84"/>
-      <c r="BT64" s="84"/>
-      <c r="BU64" s="84"/>
-      <c r="BV64" s="84"/>
-      <c r="BW64" s="84"/>
-      <c r="BX64" s="84"/>
-      <c r="BY64" s="84"/>
-      <c r="BZ64" s="84"/>
-      <c r="CA64" s="84"/>
-      <c r="CB64" s="103"/>
-      <c r="CC64" s="103"/>
-      <c r="CD64" s="103"/>
-      <c r="CE64" s="103"/>
-      <c r="CF64" s="103"/>
+      <c r="AB64" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC64" s="108"/>
+      <c r="AD64" s="108"/>
+      <c r="AE64" s="108"/>
+      <c r="AF64" s="108"/>
+      <c r="AG64" s="108"/>
+      <c r="AH64" s="108"/>
+      <c r="AI64" s="108"/>
+      <c r="AJ64" s="108"/>
+      <c r="AK64" s="108"/>
+      <c r="AL64" s="108"/>
+      <c r="AM64" s="108"/>
+      <c r="AN64" s="108"/>
+      <c r="AO64" s="108"/>
+      <c r="AP64" s="108"/>
+      <c r="AQ64" s="108"/>
+      <c r="AR64" s="108"/>
+      <c r="AS64" s="108"/>
+      <c r="AT64" s="108"/>
+      <c r="AU64" s="108"/>
+      <c r="AV64" s="108"/>
+      <c r="AW64" s="108"/>
+      <c r="AX64" s="108"/>
+      <c r="AY64" s="107"/>
+      <c r="AZ64" s="107"/>
+      <c r="BA64" s="107"/>
+      <c r="BB64" s="107"/>
+      <c r="BC64" s="107"/>
+      <c r="BD64" s="107"/>
+      <c r="BE64" s="107"/>
+      <c r="BF64" s="107"/>
+      <c r="BG64" s="107"/>
+      <c r="BH64" s="107"/>
+      <c r="BI64" s="107"/>
+      <c r="BJ64" s="107"/>
+      <c r="BK64" s="107"/>
+      <c r="BL64" s="107"/>
+      <c r="BM64" s="107"/>
+      <c r="BN64" s="107"/>
+      <c r="BO64" s="107"/>
+      <c r="BP64" s="107"/>
+      <c r="BQ64" s="107"/>
+      <c r="BR64" s="107"/>
+      <c r="BS64" s="107"/>
+      <c r="BT64" s="107"/>
+      <c r="BU64" s="107"/>
+      <c r="BV64" s="107"/>
+      <c r="BW64" s="107"/>
+      <c r="BX64" s="107"/>
+      <c r="BY64" s="107"/>
+      <c r="BZ64" s="107"/>
+      <c r="CA64" s="107"/>
+      <c r="CB64" s="115"/>
+      <c r="CC64" s="115"/>
+      <c r="CD64" s="115"/>
+      <c r="CE64" s="115"/>
+      <c r="CF64" s="115"/>
     </row>
     <row r="65" spans="4:84" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="17"/>
@@ -6918,1006 +6936,1006 @@
       <c r="Y65" s="17"/>
       <c r="Z65" s="17"/>
       <c r="AA65" s="17"/>
-      <c r="AB65" s="97"/>
-      <c r="AC65" s="97"/>
-      <c r="AD65" s="97"/>
-      <c r="AE65" s="97"/>
-      <c r="AF65" s="97"/>
-      <c r="AG65" s="97"/>
-      <c r="AH65" s="97"/>
-      <c r="AI65" s="97"/>
-      <c r="AJ65" s="97"/>
-      <c r="AK65" s="97"/>
-      <c r="AL65" s="97"/>
-      <c r="AM65" s="97"/>
-      <c r="AN65" s="97"/>
-      <c r="AO65" s="97"/>
-      <c r="AP65" s="97"/>
-      <c r="AQ65" s="97"/>
-      <c r="AR65" s="97"/>
-      <c r="AS65" s="97"/>
-      <c r="AT65" s="97"/>
-      <c r="AU65" s="97"/>
-      <c r="AV65" s="97"/>
-      <c r="AW65" s="97"/>
-      <c r="AX65" s="97"/>
-      <c r="AY65" s="84"/>
-      <c r="AZ65" s="84"/>
-      <c r="BA65" s="84"/>
-      <c r="BB65" s="84"/>
-      <c r="BC65" s="84"/>
-      <c r="BD65" s="84"/>
-      <c r="BE65" s="84"/>
-      <c r="BF65" s="84"/>
-      <c r="BG65" s="84"/>
-      <c r="BH65" s="84"/>
-      <c r="BI65" s="84"/>
-      <c r="BJ65" s="84"/>
-      <c r="BK65" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL65" s="86"/>
-      <c r="BM65" s="86"/>
-      <c r="BN65" s="86"/>
-      <c r="BO65" s="86"/>
-      <c r="BP65" s="86"/>
-      <c r="BQ65" s="86"/>
-      <c r="BR65" s="86"/>
-      <c r="BS65" s="86"/>
-      <c r="BT65" s="86"/>
-      <c r="BU65" s="86"/>
-      <c r="BV65" s="86"/>
-      <c r="BW65" s="86"/>
-      <c r="BX65" s="86"/>
-      <c r="BY65" s="86"/>
-      <c r="BZ65" s="86"/>
-      <c r="CA65" s="86"/>
-      <c r="CB65" s="103"/>
-      <c r="CC65" s="103"/>
-      <c r="CD65" s="103"/>
-      <c r="CE65" s="103"/>
-      <c r="CF65" s="103"/>
+      <c r="AB65" s="108"/>
+      <c r="AC65" s="108"/>
+      <c r="AD65" s="108"/>
+      <c r="AE65" s="108"/>
+      <c r="AF65" s="108"/>
+      <c r="AG65" s="108"/>
+      <c r="AH65" s="108"/>
+      <c r="AI65" s="108"/>
+      <c r="AJ65" s="108"/>
+      <c r="AK65" s="108"/>
+      <c r="AL65" s="108"/>
+      <c r="AM65" s="108"/>
+      <c r="AN65" s="108"/>
+      <c r="AO65" s="108"/>
+      <c r="AP65" s="108"/>
+      <c r="AQ65" s="108"/>
+      <c r="AR65" s="108"/>
+      <c r="AS65" s="108"/>
+      <c r="AT65" s="108"/>
+      <c r="AU65" s="108"/>
+      <c r="AV65" s="108"/>
+      <c r="AW65" s="108"/>
+      <c r="AX65" s="108"/>
+      <c r="AY65" s="107"/>
+      <c r="AZ65" s="107"/>
+      <c r="BA65" s="107"/>
+      <c r="BB65" s="107"/>
+      <c r="BC65" s="107"/>
+      <c r="BD65" s="107"/>
+      <c r="BE65" s="107"/>
+      <c r="BF65" s="107"/>
+      <c r="BG65" s="107"/>
+      <c r="BH65" s="107"/>
+      <c r="BI65" s="107"/>
+      <c r="BJ65" s="107"/>
+      <c r="BK65" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL65" s="91"/>
+      <c r="BM65" s="91"/>
+      <c r="BN65" s="91"/>
+      <c r="BO65" s="91"/>
+      <c r="BP65" s="91"/>
+      <c r="BQ65" s="91"/>
+      <c r="BR65" s="91"/>
+      <c r="BS65" s="91"/>
+      <c r="BT65" s="91"/>
+      <c r="BU65" s="91"/>
+      <c r="BV65" s="91"/>
+      <c r="BW65" s="91"/>
+      <c r="BX65" s="91"/>
+      <c r="BY65" s="91"/>
+      <c r="BZ65" s="91"/>
+      <c r="CA65" s="91"/>
+      <c r="CB65" s="115"/>
+      <c r="CC65" s="115"/>
+      <c r="CD65" s="115"/>
+      <c r="CE65" s="115"/>
+      <c r="CF65" s="115"/>
     </row>
     <row r="66" spans="4:84" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="17"/>
-      <c r="E66" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
-      <c r="W66" s="84"/>
-      <c r="X66" s="84"/>
-      <c r="Y66" s="84"/>
-      <c r="Z66" s="84"/>
+      <c r="E66" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="107"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="107"/>
+      <c r="P66" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
+      <c r="T66" s="107"/>
+      <c r="U66" s="107"/>
+      <c r="V66" s="107"/>
+      <c r="W66" s="107"/>
+      <c r="X66" s="107"/>
+      <c r="Y66" s="107"/>
+      <c r="Z66" s="107"/>
       <c r="AA66" s="17"/>
-      <c r="AB66" s="97"/>
-      <c r="AC66" s="97"/>
-      <c r="AD66" s="97"/>
-      <c r="AE66" s="97"/>
-      <c r="AF66" s="97"/>
-      <c r="AG66" s="97"/>
-      <c r="AH66" s="97"/>
-      <c r="AI66" s="97"/>
-      <c r="AJ66" s="97"/>
-      <c r="AK66" s="97"/>
-      <c r="AL66" s="97"/>
-      <c r="AM66" s="97"/>
-      <c r="AN66" s="97"/>
-      <c r="AO66" s="97"/>
-      <c r="AP66" s="97"/>
-      <c r="AQ66" s="97"/>
-      <c r="AR66" s="97"/>
-      <c r="AS66" s="97"/>
-      <c r="AT66" s="97"/>
-      <c r="AU66" s="97"/>
-      <c r="AV66" s="97"/>
-      <c r="AW66" s="97"/>
-      <c r="AX66" s="97"/>
-      <c r="AY66" s="84"/>
-      <c r="AZ66" s="84"/>
-      <c r="BA66" s="84"/>
-      <c r="BB66" s="84"/>
-      <c r="BC66" s="84"/>
-      <c r="BD66" s="84"/>
-      <c r="BE66" s="84"/>
-      <c r="BF66" s="84"/>
-      <c r="BG66" s="84"/>
-      <c r="BH66" s="84"/>
-      <c r="BI66" s="84"/>
-      <c r="BJ66" s="84"/>
-      <c r="BK66" s="86"/>
-      <c r="BL66" s="86"/>
-      <c r="BM66" s="86"/>
-      <c r="BN66" s="86"/>
-      <c r="BO66" s="86"/>
-      <c r="BP66" s="86"/>
-      <c r="BQ66" s="86"/>
-      <c r="BR66" s="86"/>
-      <c r="BS66" s="86"/>
-      <c r="BT66" s="86"/>
-      <c r="BU66" s="86"/>
-      <c r="BV66" s="86"/>
-      <c r="BW66" s="86"/>
-      <c r="BX66" s="86"/>
-      <c r="BY66" s="86"/>
-      <c r="BZ66" s="86"/>
-      <c r="CA66" s="86"/>
-      <c r="CB66" s="103"/>
-      <c r="CC66" s="103"/>
-      <c r="CD66" s="103"/>
-      <c r="CE66" s="103"/>
-      <c r="CF66" s="103"/>
+      <c r="AB66" s="108"/>
+      <c r="AC66" s="108"/>
+      <c r="AD66" s="108"/>
+      <c r="AE66" s="108"/>
+      <c r="AF66" s="108"/>
+      <c r="AG66" s="108"/>
+      <c r="AH66" s="108"/>
+      <c r="AI66" s="108"/>
+      <c r="AJ66" s="108"/>
+      <c r="AK66" s="108"/>
+      <c r="AL66" s="108"/>
+      <c r="AM66" s="108"/>
+      <c r="AN66" s="108"/>
+      <c r="AO66" s="108"/>
+      <c r="AP66" s="108"/>
+      <c r="AQ66" s="108"/>
+      <c r="AR66" s="108"/>
+      <c r="AS66" s="108"/>
+      <c r="AT66" s="108"/>
+      <c r="AU66" s="108"/>
+      <c r="AV66" s="108"/>
+      <c r="AW66" s="108"/>
+      <c r="AX66" s="108"/>
+      <c r="AY66" s="107"/>
+      <c r="AZ66" s="107"/>
+      <c r="BA66" s="107"/>
+      <c r="BB66" s="107"/>
+      <c r="BC66" s="107"/>
+      <c r="BD66" s="107"/>
+      <c r="BE66" s="107"/>
+      <c r="BF66" s="107"/>
+      <c r="BG66" s="107"/>
+      <c r="BH66" s="107"/>
+      <c r="BI66" s="107"/>
+      <c r="BJ66" s="107"/>
+      <c r="BK66" s="91"/>
+      <c r="BL66" s="91"/>
+      <c r="BM66" s="91"/>
+      <c r="BN66" s="91"/>
+      <c r="BO66" s="91"/>
+      <c r="BP66" s="91"/>
+      <c r="BQ66" s="91"/>
+      <c r="BR66" s="91"/>
+      <c r="BS66" s="91"/>
+      <c r="BT66" s="91"/>
+      <c r="BU66" s="91"/>
+      <c r="BV66" s="91"/>
+      <c r="BW66" s="91"/>
+      <c r="BX66" s="91"/>
+      <c r="BY66" s="91"/>
+      <c r="BZ66" s="91"/>
+      <c r="CA66" s="91"/>
+      <c r="CB66" s="115"/>
+      <c r="CC66" s="115"/>
+      <c r="CD66" s="115"/>
+      <c r="CE66" s="115"/>
+      <c r="CF66" s="115"/>
     </row>
     <row r="67" spans="4:84" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="17"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="84"/>
-      <c r="T67" s="84"/>
-      <c r="U67" s="84"/>
-      <c r="V67" s="84"/>
-      <c r="W67" s="84"/>
-      <c r="X67" s="84"/>
-      <c r="Y67" s="84"/>
-      <c r="Z67" s="84"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="107"/>
+      <c r="W67" s="107"/>
+      <c r="X67" s="107"/>
+      <c r="Y67" s="107"/>
+      <c r="Z67" s="107"/>
       <c r="AA67" s="17"/>
-      <c r="AB67" s="97"/>
-      <c r="AC67" s="97"/>
-      <c r="AD67" s="97"/>
-      <c r="AE67" s="97"/>
-      <c r="AF67" s="97"/>
-      <c r="AG67" s="97"/>
-      <c r="AH67" s="97"/>
-      <c r="AI67" s="97"/>
-      <c r="AJ67" s="97"/>
-      <c r="AK67" s="97"/>
-      <c r="AL67" s="97"/>
-      <c r="AM67" s="97"/>
-      <c r="AN67" s="97"/>
-      <c r="AO67" s="97"/>
-      <c r="AP67" s="97"/>
-      <c r="AQ67" s="97"/>
-      <c r="AR67" s="97"/>
-      <c r="AS67" s="97"/>
-      <c r="AT67" s="97"/>
-      <c r="AU67" s="97"/>
-      <c r="AV67" s="97"/>
-      <c r="AW67" s="97"/>
-      <c r="AX67" s="97"/>
-      <c r="AY67" s="104"/>
-      <c r="AZ67" s="104"/>
-      <c r="BA67" s="104"/>
-      <c r="BB67" s="104"/>
-      <c r="BC67" s="104"/>
-      <c r="BD67" s="104"/>
-      <c r="BE67" s="104"/>
-      <c r="BF67" s="104"/>
-      <c r="BG67" s="104"/>
-      <c r="BH67" s="104"/>
-      <c r="BI67" s="104"/>
-      <c r="BJ67" s="104"/>
-      <c r="BK67" s="104"/>
-      <c r="BL67" s="104"/>
-      <c r="BM67" s="104"/>
-      <c r="BN67" s="104"/>
-      <c r="BO67" s="104"/>
-      <c r="BP67" s="104"/>
-      <c r="BQ67" s="104"/>
-      <c r="BR67" s="104"/>
-      <c r="BS67" s="104"/>
-      <c r="BT67" s="104"/>
-      <c r="BU67" s="104"/>
-      <c r="BV67" s="104"/>
-      <c r="BW67" s="104"/>
-      <c r="BX67" s="104"/>
-      <c r="BY67" s="104"/>
-      <c r="BZ67" s="104"/>
-      <c r="CA67" s="104"/>
-      <c r="CB67" s="105"/>
-      <c r="CC67" s="105"/>
-      <c r="CD67" s="105"/>
-      <c r="CE67" s="105"/>
-      <c r="CF67" s="105"/>
+      <c r="AB67" s="108"/>
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="108"/>
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="108"/>
+      <c r="AG67" s="108"/>
+      <c r="AH67" s="108"/>
+      <c r="AI67" s="108"/>
+      <c r="AJ67" s="108"/>
+      <c r="AK67" s="108"/>
+      <c r="AL67" s="108"/>
+      <c r="AM67" s="108"/>
+      <c r="AN67" s="108"/>
+      <c r="AO67" s="108"/>
+      <c r="AP67" s="108"/>
+      <c r="AQ67" s="108"/>
+      <c r="AR67" s="108"/>
+      <c r="AS67" s="108"/>
+      <c r="AT67" s="108"/>
+      <c r="AU67" s="108"/>
+      <c r="AV67" s="108"/>
+      <c r="AW67" s="108"/>
+      <c r="AX67" s="108"/>
+      <c r="AY67" s="116"/>
+      <c r="AZ67" s="116"/>
+      <c r="BA67" s="116"/>
+      <c r="BB67" s="116"/>
+      <c r="BC67" s="116"/>
+      <c r="BD67" s="116"/>
+      <c r="BE67" s="116"/>
+      <c r="BF67" s="116"/>
+      <c r="BG67" s="116"/>
+      <c r="BH67" s="116"/>
+      <c r="BI67" s="116"/>
+      <c r="BJ67" s="116"/>
+      <c r="BK67" s="116"/>
+      <c r="BL67" s="116"/>
+      <c r="BM67" s="116"/>
+      <c r="BN67" s="116"/>
+      <c r="BO67" s="116"/>
+      <c r="BP67" s="116"/>
+      <c r="BQ67" s="116"/>
+      <c r="BR67" s="116"/>
+      <c r="BS67" s="116"/>
+      <c r="BT67" s="116"/>
+      <c r="BU67" s="116"/>
+      <c r="BV67" s="116"/>
+      <c r="BW67" s="116"/>
+      <c r="BX67" s="116"/>
+      <c r="BY67" s="116"/>
+      <c r="BZ67" s="116"/>
+      <c r="CA67" s="116"/>
+      <c r="CB67" s="117"/>
+      <c r="CC67" s="117"/>
+      <c r="CD67" s="117"/>
+      <c r="CE67" s="117"/>
+      <c r="CF67" s="117"/>
     </row>
     <row r="68" spans="4:84" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="17"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="84"/>
-      <c r="V68" s="84"/>
-      <c r="W68" s="84"/>
-      <c r="X68" s="84"/>
-      <c r="Y68" s="84"/>
-      <c r="Z68" s="84"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
+      <c r="T68" s="107"/>
+      <c r="U68" s="107"/>
+      <c r="V68" s="107"/>
+      <c r="W68" s="107"/>
+      <c r="X68" s="107"/>
+      <c r="Y68" s="107"/>
+      <c r="Z68" s="107"/>
       <c r="AA68" s="17"/>
-      <c r="AB68" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC68" s="97"/>
-      <c r="AD68" s="97"/>
-      <c r="AE68" s="97"/>
-      <c r="AF68" s="97"/>
-      <c r="AG68" s="97"/>
-      <c r="AH68" s="97"/>
-      <c r="AI68" s="97"/>
-      <c r="AJ68" s="97"/>
-      <c r="AK68" s="97"/>
-      <c r="AL68" s="97"/>
-      <c r="AM68" s="97"/>
-      <c r="AN68" s="97"/>
-      <c r="AO68" s="97"/>
-      <c r="AP68" s="97"/>
-      <c r="AQ68" s="97"/>
-      <c r="AR68" s="97"/>
-      <c r="AS68" s="97"/>
-      <c r="AT68" s="97"/>
-      <c r="AU68" s="97"/>
-      <c r="AV68" s="97"/>
-      <c r="AW68" s="97"/>
-      <c r="AX68" s="97"/>
-      <c r="AY68" s="75"/>
-      <c r="AZ68" s="75"/>
-      <c r="BA68" s="75"/>
-      <c r="BB68" s="75"/>
-      <c r="BC68" s="75"/>
-      <c r="BD68" s="75"/>
-      <c r="BE68" s="75"/>
-      <c r="BF68" s="75"/>
-      <c r="BG68" s="75"/>
-      <c r="BH68" s="75"/>
-      <c r="BI68" s="75"/>
-      <c r="BJ68" s="75"/>
-      <c r="BK68" s="75"/>
-      <c r="BL68" s="75"/>
-      <c r="BM68" s="75"/>
-      <c r="BN68" s="75"/>
-      <c r="BO68" s="75"/>
-      <c r="BP68" s="75"/>
-      <c r="BQ68" s="75"/>
-      <c r="BR68" s="75"/>
-      <c r="BS68" s="75"/>
-      <c r="BT68" s="75"/>
-      <c r="BU68" s="75"/>
-      <c r="BV68" s="75"/>
-      <c r="BW68" s="75"/>
-      <c r="BX68" s="75"/>
-      <c r="BY68" s="75"/>
-      <c r="BZ68" s="75"/>
-      <c r="CA68" s="75"/>
-      <c r="CB68" s="75"/>
-      <c r="CC68" s="77"/>
-      <c r="CD68" s="77"/>
-      <c r="CE68" s="77"/>
-      <c r="CF68" s="77"/>
+      <c r="AB68" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC68" s="108"/>
+      <c r="AD68" s="108"/>
+      <c r="AE68" s="108"/>
+      <c r="AF68" s="108"/>
+      <c r="AG68" s="108"/>
+      <c r="AH68" s="108"/>
+      <c r="AI68" s="108"/>
+      <c r="AJ68" s="108"/>
+      <c r="AK68" s="108"/>
+      <c r="AL68" s="108"/>
+      <c r="AM68" s="108"/>
+      <c r="AN68" s="108"/>
+      <c r="AO68" s="108"/>
+      <c r="AP68" s="108"/>
+      <c r="AQ68" s="108"/>
+      <c r="AR68" s="108"/>
+      <c r="AS68" s="108"/>
+      <c r="AT68" s="108"/>
+      <c r="AU68" s="108"/>
+      <c r="AV68" s="108"/>
+      <c r="AW68" s="108"/>
+      <c r="AX68" s="108"/>
+      <c r="AY68" s="80"/>
+      <c r="AZ68" s="80"/>
+      <c r="BA68" s="80"/>
+      <c r="BB68" s="80"/>
+      <c r="BC68" s="80"/>
+      <c r="BD68" s="80"/>
+      <c r="BE68" s="80"/>
+      <c r="BF68" s="80"/>
+      <c r="BG68" s="80"/>
+      <c r="BH68" s="80"/>
+      <c r="BI68" s="80"/>
+      <c r="BJ68" s="80"/>
+      <c r="BK68" s="80"/>
+      <c r="BL68" s="80"/>
+      <c r="BM68" s="80"/>
+      <c r="BN68" s="80"/>
+      <c r="BO68" s="80"/>
+      <c r="BP68" s="80"/>
+      <c r="BQ68" s="80"/>
+      <c r="BR68" s="80"/>
+      <c r="BS68" s="80"/>
+      <c r="BT68" s="80"/>
+      <c r="BU68" s="80"/>
+      <c r="BV68" s="80"/>
+      <c r="BW68" s="80"/>
+      <c r="BX68" s="80"/>
+      <c r="BY68" s="80"/>
+      <c r="BZ68" s="80"/>
+      <c r="CA68" s="80"/>
+      <c r="CB68" s="80"/>
+      <c r="CC68" s="82"/>
+      <c r="CD68" s="82"/>
+      <c r="CE68" s="82"/>
+      <c r="CF68" s="82"/>
     </row>
     <row r="69" spans="4:84" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="17"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
-      <c r="W69" s="84"/>
-      <c r="X69" s="84"/>
-      <c r="Y69" s="84"/>
-      <c r="Z69" s="84"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
+      <c r="T69" s="107"/>
+      <c r="U69" s="107"/>
+      <c r="V69" s="107"/>
+      <c r="W69" s="107"/>
+      <c r="X69" s="107"/>
+      <c r="Y69" s="107"/>
+      <c r="Z69" s="107"/>
       <c r="AA69" s="17"/>
-      <c r="AB69" s="97"/>
-      <c r="AC69" s="97"/>
-      <c r="AD69" s="97"/>
-      <c r="AE69" s="97"/>
-      <c r="AF69" s="97"/>
-      <c r="AG69" s="97"/>
-      <c r="AH69" s="97"/>
-      <c r="AI69" s="97"/>
-      <c r="AJ69" s="97"/>
-      <c r="AK69" s="97"/>
-      <c r="AL69" s="97"/>
-      <c r="AM69" s="97"/>
-      <c r="AN69" s="97"/>
-      <c r="AO69" s="97"/>
-      <c r="AP69" s="97"/>
-      <c r="AQ69" s="97"/>
-      <c r="AR69" s="97"/>
-      <c r="AS69" s="97"/>
-      <c r="AT69" s="97"/>
-      <c r="AU69" s="97"/>
-      <c r="AV69" s="97"/>
-      <c r="AW69" s="97"/>
-      <c r="AX69" s="97"/>
-      <c r="AY69" s="75"/>
-      <c r="AZ69" s="75"/>
-      <c r="BA69" s="75"/>
-      <c r="BB69" s="75"/>
-      <c r="BC69" s="75"/>
-      <c r="BD69" s="75"/>
-      <c r="BE69" s="75"/>
-      <c r="BF69" s="75"/>
-      <c r="BG69" s="75"/>
-      <c r="BH69" s="75"/>
-      <c r="BI69" s="75"/>
-      <c r="BJ69" s="75"/>
+      <c r="AB69" s="108"/>
+      <c r="AC69" s="108"/>
+      <c r="AD69" s="108"/>
+      <c r="AE69" s="108"/>
+      <c r="AF69" s="108"/>
+      <c r="AG69" s="108"/>
+      <c r="AH69" s="108"/>
+      <c r="AI69" s="108"/>
+      <c r="AJ69" s="108"/>
+      <c r="AK69" s="108"/>
+      <c r="AL69" s="108"/>
+      <c r="AM69" s="108"/>
+      <c r="AN69" s="108"/>
+      <c r="AO69" s="108"/>
+      <c r="AP69" s="108"/>
+      <c r="AQ69" s="108"/>
+      <c r="AR69" s="108"/>
+      <c r="AS69" s="108"/>
+      <c r="AT69" s="108"/>
+      <c r="AU69" s="108"/>
+      <c r="AV69" s="108"/>
+      <c r="AW69" s="108"/>
+      <c r="AX69" s="108"/>
+      <c r="AY69" s="80"/>
+      <c r="AZ69" s="80"/>
+      <c r="BA69" s="80"/>
+      <c r="BB69" s="80"/>
+      <c r="BC69" s="80"/>
+      <c r="BD69" s="80"/>
+      <c r="BE69" s="80"/>
+      <c r="BF69" s="80"/>
+      <c r="BG69" s="80"/>
+      <c r="BH69" s="80"/>
+      <c r="BI69" s="80"/>
+      <c r="BJ69" s="80"/>
       <c r="BK69" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL69" s="76"/>
-      <c r="BM69" s="76"/>
-      <c r="BN69" s="76"/>
-      <c r="BO69" s="76"/>
-      <c r="BP69" s="76"/>
-      <c r="BQ69" s="76"/>
-      <c r="BR69" s="76"/>
-      <c r="BS69" s="76"/>
-      <c r="BT69" s="76"/>
-      <c r="BU69" s="76"/>
-      <c r="BV69" s="76"/>
-      <c r="BW69" s="76"/>
-      <c r="BX69" s="76"/>
-      <c r="BY69" s="76"/>
-      <c r="BZ69" s="76"/>
-      <c r="CA69" s="76"/>
-      <c r="CB69" s="76"/>
-      <c r="CC69" s="77"/>
-      <c r="CD69" s="77"/>
-      <c r="CE69" s="77"/>
-      <c r="CF69" s="77"/>
+        <v>86</v>
+      </c>
+      <c r="BL69" s="81"/>
+      <c r="BM69" s="81"/>
+      <c r="BN69" s="81"/>
+      <c r="BO69" s="81"/>
+      <c r="BP69" s="81"/>
+      <c r="BQ69" s="81"/>
+      <c r="BR69" s="81"/>
+      <c r="BS69" s="81"/>
+      <c r="BT69" s="81"/>
+      <c r="BU69" s="81"/>
+      <c r="BV69" s="81"/>
+      <c r="BW69" s="81"/>
+      <c r="BX69" s="81"/>
+      <c r="BY69" s="81"/>
+      <c r="BZ69" s="81"/>
+      <c r="CA69" s="81"/>
+      <c r="CB69" s="81"/>
+      <c r="CC69" s="82"/>
+      <c r="CD69" s="82"/>
+      <c r="CE69" s="82"/>
+      <c r="CF69" s="82"/>
     </row>
     <row r="70" spans="4:84" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="17"/>
-      <c r="E70" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
-      <c r="W70" s="84"/>
-      <c r="X70" s="84"/>
-      <c r="Y70" s="84"/>
-      <c r="Z70" s="84"/>
+      <c r="E70" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="107"/>
+      <c r="T70" s="107"/>
+      <c r="U70" s="107"/>
+      <c r="V70" s="107"/>
+      <c r="W70" s="107"/>
+      <c r="X70" s="107"/>
+      <c r="Y70" s="107"/>
+      <c r="Z70" s="107"/>
       <c r="AA70" s="17"/>
-      <c r="AB70" s="97"/>
-      <c r="AC70" s="97"/>
-      <c r="AD70" s="97"/>
-      <c r="AE70" s="97"/>
-      <c r="AF70" s="97"/>
-      <c r="AG70" s="97"/>
-      <c r="AH70" s="97"/>
-      <c r="AI70" s="97"/>
-      <c r="AJ70" s="97"/>
-      <c r="AK70" s="97"/>
-      <c r="AL70" s="97"/>
-      <c r="AM70" s="97"/>
-      <c r="AN70" s="97"/>
-      <c r="AO70" s="97"/>
-      <c r="AP70" s="97"/>
-      <c r="AQ70" s="97"/>
-      <c r="AR70" s="97"/>
-      <c r="AS70" s="97"/>
-      <c r="AT70" s="97"/>
-      <c r="AU70" s="97"/>
-      <c r="AV70" s="97"/>
-      <c r="AW70" s="97"/>
-      <c r="AX70" s="97"/>
-      <c r="AY70" s="75"/>
-      <c r="AZ70" s="75"/>
-      <c r="BA70" s="75"/>
-      <c r="BB70" s="75"/>
-      <c r="BC70" s="75"/>
-      <c r="BD70" s="75"/>
-      <c r="BE70" s="75"/>
-      <c r="BF70" s="75"/>
-      <c r="BG70" s="75"/>
-      <c r="BH70" s="75"/>
-      <c r="BI70" s="75"/>
-      <c r="BJ70" s="75"/>
-      <c r="BK70" s="76"/>
-      <c r="BL70" s="76"/>
-      <c r="BM70" s="76"/>
-      <c r="BN70" s="76"/>
-      <c r="BO70" s="76"/>
-      <c r="BP70" s="76"/>
-      <c r="BQ70" s="76"/>
-      <c r="BR70" s="76"/>
-      <c r="BS70" s="76"/>
-      <c r="BT70" s="76"/>
-      <c r="BU70" s="76"/>
-      <c r="BV70" s="76"/>
-      <c r="BW70" s="76"/>
-      <c r="BX70" s="76"/>
-      <c r="BY70" s="76"/>
-      <c r="BZ70" s="76"/>
-      <c r="CA70" s="76"/>
-      <c r="CB70" s="76"/>
-      <c r="CC70" s="77"/>
-      <c r="CD70" s="77"/>
-      <c r="CE70" s="77"/>
-      <c r="CF70" s="77"/>
+      <c r="AB70" s="108"/>
+      <c r="AC70" s="108"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="108"/>
+      <c r="AF70" s="108"/>
+      <c r="AG70" s="108"/>
+      <c r="AH70" s="108"/>
+      <c r="AI70" s="108"/>
+      <c r="AJ70" s="108"/>
+      <c r="AK70" s="108"/>
+      <c r="AL70" s="108"/>
+      <c r="AM70" s="108"/>
+      <c r="AN70" s="108"/>
+      <c r="AO70" s="108"/>
+      <c r="AP70" s="108"/>
+      <c r="AQ70" s="108"/>
+      <c r="AR70" s="108"/>
+      <c r="AS70" s="108"/>
+      <c r="AT70" s="108"/>
+      <c r="AU70" s="108"/>
+      <c r="AV70" s="108"/>
+      <c r="AW70" s="108"/>
+      <c r="AX70" s="108"/>
+      <c r="AY70" s="80"/>
+      <c r="AZ70" s="80"/>
+      <c r="BA70" s="80"/>
+      <c r="BB70" s="80"/>
+      <c r="BC70" s="80"/>
+      <c r="BD70" s="80"/>
+      <c r="BE70" s="80"/>
+      <c r="BF70" s="80"/>
+      <c r="BG70" s="80"/>
+      <c r="BH70" s="80"/>
+      <c r="BI70" s="80"/>
+      <c r="BJ70" s="80"/>
+      <c r="BK70" s="81"/>
+      <c r="BL70" s="81"/>
+      <c r="BM70" s="81"/>
+      <c r="BN70" s="81"/>
+      <c r="BO70" s="81"/>
+      <c r="BP70" s="81"/>
+      <c r="BQ70" s="81"/>
+      <c r="BR70" s="81"/>
+      <c r="BS70" s="81"/>
+      <c r="BT70" s="81"/>
+      <c r="BU70" s="81"/>
+      <c r="BV70" s="81"/>
+      <c r="BW70" s="81"/>
+      <c r="BX70" s="81"/>
+      <c r="BY70" s="81"/>
+      <c r="BZ70" s="81"/>
+      <c r="CA70" s="81"/>
+      <c r="CB70" s="81"/>
+      <c r="CC70" s="82"/>
+      <c r="CD70" s="82"/>
+      <c r="CE70" s="82"/>
+      <c r="CF70" s="82"/>
     </row>
     <row r="71" spans="4:84" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="17"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
-      <c r="V71" s="84"/>
-      <c r="W71" s="84"/>
-      <c r="X71" s="84"/>
-      <c r="Y71" s="84"/>
-      <c r="Z71" s="84"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="107"/>
+      <c r="T71" s="107"/>
+      <c r="U71" s="107"/>
+      <c r="V71" s="107"/>
+      <c r="W71" s="107"/>
+      <c r="X71" s="107"/>
+      <c r="Y71" s="107"/>
+      <c r="Z71" s="107"/>
       <c r="AA71" s="17"/>
-      <c r="AB71" s="97"/>
-      <c r="AC71" s="97"/>
-      <c r="AD71" s="97"/>
-      <c r="AE71" s="97"/>
-      <c r="AF71" s="97"/>
-      <c r="AG71" s="97"/>
-      <c r="AH71" s="97"/>
-      <c r="AI71" s="97"/>
-      <c r="AJ71" s="97"/>
-      <c r="AK71" s="97"/>
-      <c r="AL71" s="97"/>
-      <c r="AM71" s="97"/>
-      <c r="AN71" s="97"/>
-      <c r="AO71" s="97"/>
-      <c r="AP71" s="97"/>
-      <c r="AQ71" s="97"/>
-      <c r="AR71" s="97"/>
-      <c r="AS71" s="97"/>
-      <c r="AT71" s="97"/>
-      <c r="AU71" s="97"/>
-      <c r="AV71" s="97"/>
-      <c r="AW71" s="97"/>
-      <c r="AX71" s="97"/>
-      <c r="AY71" s="78"/>
-      <c r="AZ71" s="78"/>
-      <c r="BA71" s="78"/>
-      <c r="BB71" s="78"/>
-      <c r="BC71" s="78"/>
-      <c r="BD71" s="78"/>
-      <c r="BE71" s="78"/>
-      <c r="BF71" s="78"/>
-      <c r="BG71" s="78"/>
-      <c r="BH71" s="78"/>
-      <c r="BI71" s="78"/>
-      <c r="BJ71" s="78"/>
-      <c r="BK71" s="78"/>
-      <c r="BL71" s="78"/>
-      <c r="BM71" s="78"/>
-      <c r="BN71" s="78"/>
-      <c r="BO71" s="78"/>
-      <c r="BP71" s="78"/>
-      <c r="BQ71" s="78"/>
-      <c r="BR71" s="78"/>
-      <c r="BS71" s="78"/>
-      <c r="BT71" s="78"/>
-      <c r="BU71" s="78"/>
-      <c r="BV71" s="78"/>
-      <c r="BW71" s="78"/>
-      <c r="BX71" s="78"/>
-      <c r="BY71" s="78"/>
-      <c r="BZ71" s="78"/>
-      <c r="CA71" s="78"/>
-      <c r="CB71" s="78"/>
-      <c r="CC71" s="79"/>
-      <c r="CD71" s="79"/>
-      <c r="CE71" s="79"/>
-      <c r="CF71" s="79"/>
+      <c r="AB71" s="108"/>
+      <c r="AC71" s="108"/>
+      <c r="AD71" s="108"/>
+      <c r="AE71" s="108"/>
+      <c r="AF71" s="108"/>
+      <c r="AG71" s="108"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="108"/>
+      <c r="AJ71" s="108"/>
+      <c r="AK71" s="108"/>
+      <c r="AL71" s="108"/>
+      <c r="AM71" s="108"/>
+      <c r="AN71" s="108"/>
+      <c r="AO71" s="108"/>
+      <c r="AP71" s="108"/>
+      <c r="AQ71" s="108"/>
+      <c r="AR71" s="108"/>
+      <c r="AS71" s="108"/>
+      <c r="AT71" s="108"/>
+      <c r="AU71" s="108"/>
+      <c r="AV71" s="108"/>
+      <c r="AW71" s="108"/>
+      <c r="AX71" s="108"/>
+      <c r="AY71" s="83"/>
+      <c r="AZ71" s="83"/>
+      <c r="BA71" s="83"/>
+      <c r="BB71" s="83"/>
+      <c r="BC71" s="83"/>
+      <c r="BD71" s="83"/>
+      <c r="BE71" s="83"/>
+      <c r="BF71" s="83"/>
+      <c r="BG71" s="83"/>
+      <c r="BH71" s="83"/>
+      <c r="BI71" s="83"/>
+      <c r="BJ71" s="83"/>
+      <c r="BK71" s="83"/>
+      <c r="BL71" s="83"/>
+      <c r="BM71" s="83"/>
+      <c r="BN71" s="83"/>
+      <c r="BO71" s="83"/>
+      <c r="BP71" s="83"/>
+      <c r="BQ71" s="83"/>
+      <c r="BR71" s="83"/>
+      <c r="BS71" s="83"/>
+      <c r="BT71" s="83"/>
+      <c r="BU71" s="83"/>
+      <c r="BV71" s="83"/>
+      <c r="BW71" s="83"/>
+      <c r="BX71" s="83"/>
+      <c r="BY71" s="83"/>
+      <c r="BZ71" s="83"/>
+      <c r="CA71" s="83"/>
+      <c r="CB71" s="83"/>
+      <c r="CC71" s="84"/>
+      <c r="CD71" s="84"/>
+      <c r="CE71" s="84"/>
+      <c r="CF71" s="84"/>
     </row>
     <row r="72" spans="4:84" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="17"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
-      <c r="T72" s="84"/>
-      <c r="U72" s="84"/>
-      <c r="V72" s="84"/>
-      <c r="W72" s="84"/>
-      <c r="X72" s="84"/>
-      <c r="Y72" s="84"/>
-      <c r="Z72" s="84"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="107"/>
+      <c r="M72" s="107"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="107"/>
+      <c r="P72" s="107"/>
+      <c r="Q72" s="107"/>
+      <c r="R72" s="107"/>
+      <c r="S72" s="107"/>
+      <c r="T72" s="107"/>
+      <c r="U72" s="107"/>
+      <c r="V72" s="107"/>
+      <c r="W72" s="107"/>
+      <c r="X72" s="107"/>
+      <c r="Y72" s="107"/>
+      <c r="Z72" s="107"/>
       <c r="AA72" s="17"/>
-      <c r="AB72" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC72" s="97"/>
-      <c r="AD72" s="97"/>
-      <c r="AE72" s="97"/>
-      <c r="AF72" s="97"/>
-      <c r="AG72" s="97"/>
-      <c r="AH72" s="97"/>
-      <c r="AI72" s="97"/>
-      <c r="AJ72" s="97"/>
-      <c r="AK72" s="97"/>
-      <c r="AL72" s="97"/>
-      <c r="AM72" s="97"/>
-      <c r="AN72" s="97"/>
-      <c r="AO72" s="97"/>
-      <c r="AP72" s="97"/>
-      <c r="AQ72" s="97"/>
-      <c r="AR72" s="97"/>
-      <c r="AS72" s="97"/>
-      <c r="AT72" s="97"/>
-      <c r="AU72" s="97"/>
-      <c r="AV72" s="97"/>
-      <c r="AW72" s="97"/>
-      <c r="AX72" s="97"/>
-      <c r="AY72" s="75"/>
-      <c r="AZ72" s="75"/>
-      <c r="BA72" s="75"/>
-      <c r="BB72" s="75"/>
-      <c r="BC72" s="75"/>
-      <c r="BD72" s="75"/>
-      <c r="BE72" s="75"/>
-      <c r="BF72" s="75"/>
-      <c r="BG72" s="75"/>
-      <c r="BH72" s="75"/>
-      <c r="BI72" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ72" s="76"/>
-      <c r="BK72" s="76"/>
-      <c r="BL72" s="76"/>
-      <c r="BM72" s="76"/>
-      <c r="BN72" s="76"/>
-      <c r="BO72" s="76"/>
-      <c r="BP72" s="76"/>
-      <c r="BQ72" s="76"/>
-      <c r="BR72" s="76"/>
-      <c r="BS72" s="76"/>
-      <c r="BT72" s="76"/>
-      <c r="BU72" s="76"/>
-      <c r="BV72" s="76"/>
-      <c r="BW72" s="76"/>
-      <c r="BX72" s="76"/>
-      <c r="BY72" s="76"/>
-      <c r="BZ72" s="76"/>
-      <c r="CA72" s="76"/>
-      <c r="CB72" s="76"/>
-      <c r="CC72" s="76"/>
-      <c r="CD72" s="76"/>
-      <c r="CE72" s="77"/>
-      <c r="CF72" s="77"/>
+      <c r="AB72" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC72" s="108"/>
+      <c r="AD72" s="108"/>
+      <c r="AE72" s="108"/>
+      <c r="AF72" s="108"/>
+      <c r="AG72" s="108"/>
+      <c r="AH72" s="108"/>
+      <c r="AI72" s="108"/>
+      <c r="AJ72" s="108"/>
+      <c r="AK72" s="108"/>
+      <c r="AL72" s="108"/>
+      <c r="AM72" s="108"/>
+      <c r="AN72" s="108"/>
+      <c r="AO72" s="108"/>
+      <c r="AP72" s="108"/>
+      <c r="AQ72" s="108"/>
+      <c r="AR72" s="108"/>
+      <c r="AS72" s="108"/>
+      <c r="AT72" s="108"/>
+      <c r="AU72" s="108"/>
+      <c r="AV72" s="108"/>
+      <c r="AW72" s="108"/>
+      <c r="AX72" s="108"/>
+      <c r="AY72" s="80"/>
+      <c r="AZ72" s="80"/>
+      <c r="BA72" s="80"/>
+      <c r="BB72" s="80"/>
+      <c r="BC72" s="80"/>
+      <c r="BD72" s="80"/>
+      <c r="BE72" s="80"/>
+      <c r="BF72" s="80"/>
+      <c r="BG72" s="80"/>
+      <c r="BH72" s="80"/>
+      <c r="BI72" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ72" s="81"/>
+      <c r="BK72" s="81"/>
+      <c r="BL72" s="81"/>
+      <c r="BM72" s="81"/>
+      <c r="BN72" s="81"/>
+      <c r="BO72" s="81"/>
+      <c r="BP72" s="81"/>
+      <c r="BQ72" s="81"/>
+      <c r="BR72" s="81"/>
+      <c r="BS72" s="81"/>
+      <c r="BT72" s="81"/>
+      <c r="BU72" s="81"/>
+      <c r="BV72" s="81"/>
+      <c r="BW72" s="81"/>
+      <c r="BX72" s="81"/>
+      <c r="BY72" s="81"/>
+      <c r="BZ72" s="81"/>
+      <c r="CA72" s="81"/>
+      <c r="CB72" s="81"/>
+      <c r="CC72" s="81"/>
+      <c r="CD72" s="81"/>
+      <c r="CE72" s="82"/>
+      <c r="CF72" s="82"/>
     </row>
     <row r="73" spans="4:84" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="17"/>
-      <c r="E73" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="84"/>
-      <c r="W73" s="84"/>
-      <c r="X73" s="84"/>
-      <c r="Y73" s="84"/>
-      <c r="Z73" s="84"/>
+      <c r="E73" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="107"/>
+      <c r="O73" s="107"/>
+      <c r="P73" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="107"/>
+      <c r="T73" s="107"/>
+      <c r="U73" s="107"/>
+      <c r="V73" s="107"/>
+      <c r="W73" s="107"/>
+      <c r="X73" s="107"/>
+      <c r="Y73" s="107"/>
+      <c r="Z73" s="107"/>
       <c r="AA73" s="17"/>
-      <c r="AB73" s="97"/>
-      <c r="AC73" s="97"/>
-      <c r="AD73" s="97"/>
-      <c r="AE73" s="97"/>
-      <c r="AF73" s="97"/>
-      <c r="AG73" s="97"/>
-      <c r="AH73" s="97"/>
-      <c r="AI73" s="97"/>
-      <c r="AJ73" s="97"/>
-      <c r="AK73" s="97"/>
-      <c r="AL73" s="97"/>
-      <c r="AM73" s="97"/>
-      <c r="AN73" s="97"/>
-      <c r="AO73" s="97"/>
-      <c r="AP73" s="97"/>
-      <c r="AQ73" s="97"/>
-      <c r="AR73" s="97"/>
-      <c r="AS73" s="97"/>
-      <c r="AT73" s="97"/>
-      <c r="AU73" s="97"/>
-      <c r="AV73" s="97"/>
-      <c r="AW73" s="97"/>
-      <c r="AX73" s="97"/>
-      <c r="AY73" s="75"/>
-      <c r="AZ73" s="75"/>
-      <c r="BA73" s="75"/>
-      <c r="BB73" s="75"/>
-      <c r="BC73" s="75"/>
-      <c r="BD73" s="75"/>
-      <c r="BE73" s="75"/>
-      <c r="BF73" s="75"/>
-      <c r="BG73" s="75"/>
-      <c r="BH73" s="75"/>
-      <c r="BI73" s="76"/>
-      <c r="BJ73" s="76"/>
-      <c r="BK73" s="76"/>
-      <c r="BL73" s="76"/>
-      <c r="BM73" s="76"/>
-      <c r="BN73" s="76"/>
-      <c r="BO73" s="76"/>
-      <c r="BP73" s="76"/>
-      <c r="BQ73" s="76"/>
-      <c r="BR73" s="76"/>
-      <c r="BS73" s="76"/>
-      <c r="BT73" s="76"/>
-      <c r="BU73" s="76"/>
-      <c r="BV73" s="76"/>
-      <c r="BW73" s="76"/>
-      <c r="BX73" s="76"/>
-      <c r="BY73" s="76"/>
-      <c r="BZ73" s="76"/>
-      <c r="CA73" s="76"/>
-      <c r="CB73" s="76"/>
-      <c r="CC73" s="76"/>
-      <c r="CD73" s="76"/>
-      <c r="CE73" s="77"/>
-      <c r="CF73" s="77"/>
+      <c r="AB73" s="108"/>
+      <c r="AC73" s="108"/>
+      <c r="AD73" s="108"/>
+      <c r="AE73" s="108"/>
+      <c r="AF73" s="108"/>
+      <c r="AG73" s="108"/>
+      <c r="AH73" s="108"/>
+      <c r="AI73" s="108"/>
+      <c r="AJ73" s="108"/>
+      <c r="AK73" s="108"/>
+      <c r="AL73" s="108"/>
+      <c r="AM73" s="108"/>
+      <c r="AN73" s="108"/>
+      <c r="AO73" s="108"/>
+      <c r="AP73" s="108"/>
+      <c r="AQ73" s="108"/>
+      <c r="AR73" s="108"/>
+      <c r="AS73" s="108"/>
+      <c r="AT73" s="108"/>
+      <c r="AU73" s="108"/>
+      <c r="AV73" s="108"/>
+      <c r="AW73" s="108"/>
+      <c r="AX73" s="108"/>
+      <c r="AY73" s="80"/>
+      <c r="AZ73" s="80"/>
+      <c r="BA73" s="80"/>
+      <c r="BB73" s="80"/>
+      <c r="BC73" s="80"/>
+      <c r="BD73" s="80"/>
+      <c r="BE73" s="80"/>
+      <c r="BF73" s="80"/>
+      <c r="BG73" s="80"/>
+      <c r="BH73" s="80"/>
+      <c r="BI73" s="81"/>
+      <c r="BJ73" s="81"/>
+      <c r="BK73" s="81"/>
+      <c r="BL73" s="81"/>
+      <c r="BM73" s="81"/>
+      <c r="BN73" s="81"/>
+      <c r="BO73" s="81"/>
+      <c r="BP73" s="81"/>
+      <c r="BQ73" s="81"/>
+      <c r="BR73" s="81"/>
+      <c r="BS73" s="81"/>
+      <c r="BT73" s="81"/>
+      <c r="BU73" s="81"/>
+      <c r="BV73" s="81"/>
+      <c r="BW73" s="81"/>
+      <c r="BX73" s="81"/>
+      <c r="BY73" s="81"/>
+      <c r="BZ73" s="81"/>
+      <c r="CA73" s="81"/>
+      <c r="CB73" s="81"/>
+      <c r="CC73" s="81"/>
+      <c r="CD73" s="81"/>
+      <c r="CE73" s="82"/>
+      <c r="CF73" s="82"/>
     </row>
     <row r="74" spans="4:84" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="17"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="84"/>
-      <c r="S74" s="84"/>
-      <c r="T74" s="84"/>
-      <c r="U74" s="84"/>
-      <c r="V74" s="84"/>
-      <c r="W74" s="84"/>
-      <c r="X74" s="84"/>
-      <c r="Y74" s="84"/>
-      <c r="Z74" s="84"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="M74" s="107"/>
+      <c r="N74" s="107"/>
+      <c r="O74" s="107"/>
+      <c r="P74" s="107"/>
+      <c r="Q74" s="107"/>
+      <c r="R74" s="107"/>
+      <c r="S74" s="107"/>
+      <c r="T74" s="107"/>
+      <c r="U74" s="107"/>
+      <c r="V74" s="107"/>
+      <c r="W74" s="107"/>
+      <c r="X74" s="107"/>
+      <c r="Y74" s="107"/>
+      <c r="Z74" s="107"/>
       <c r="AA74" s="17"/>
-      <c r="AB74" s="97"/>
-      <c r="AC74" s="97"/>
-      <c r="AD74" s="97"/>
-      <c r="AE74" s="97"/>
-      <c r="AF74" s="97"/>
-      <c r="AG74" s="97"/>
-      <c r="AH74" s="97"/>
-      <c r="AI74" s="97"/>
-      <c r="AJ74" s="97"/>
-      <c r="AK74" s="97"/>
-      <c r="AL74" s="97"/>
-      <c r="AM74" s="97"/>
-      <c r="AN74" s="97"/>
-      <c r="AO74" s="97"/>
-      <c r="AP74" s="97"/>
-      <c r="AQ74" s="97"/>
-      <c r="AR74" s="97"/>
-      <c r="AS74" s="97"/>
-      <c r="AT74" s="97"/>
-      <c r="AU74" s="97"/>
-      <c r="AV74" s="97"/>
-      <c r="AW74" s="97"/>
-      <c r="AX74" s="97"/>
-      <c r="AY74" s="78"/>
-      <c r="AZ74" s="78"/>
-      <c r="BA74" s="78"/>
-      <c r="BB74" s="78"/>
-      <c r="BC74" s="78"/>
-      <c r="BD74" s="78"/>
-      <c r="BE74" s="78"/>
-      <c r="BF74" s="78"/>
-      <c r="BG74" s="78"/>
-      <c r="BH74" s="78"/>
-      <c r="BI74" s="78"/>
-      <c r="BJ74" s="78"/>
-      <c r="BK74" s="78"/>
-      <c r="BL74" s="78"/>
-      <c r="BM74" s="78"/>
-      <c r="BN74" s="78"/>
-      <c r="BO74" s="78"/>
-      <c r="BP74" s="78"/>
-      <c r="BQ74" s="78"/>
-      <c r="BR74" s="78"/>
-      <c r="BS74" s="78"/>
-      <c r="BT74" s="78"/>
-      <c r="BU74" s="78"/>
-      <c r="BV74" s="78"/>
-      <c r="BW74" s="78"/>
-      <c r="BX74" s="78"/>
-      <c r="BY74" s="78"/>
-      <c r="BZ74" s="78"/>
-      <c r="CA74" s="78"/>
-      <c r="CB74" s="78"/>
-      <c r="CC74" s="78"/>
-      <c r="CD74" s="78"/>
-      <c r="CE74" s="79"/>
-      <c r="CF74" s="79"/>
+      <c r="AB74" s="108"/>
+      <c r="AC74" s="108"/>
+      <c r="AD74" s="108"/>
+      <c r="AE74" s="108"/>
+      <c r="AF74" s="108"/>
+      <c r="AG74" s="108"/>
+      <c r="AH74" s="108"/>
+      <c r="AI74" s="108"/>
+      <c r="AJ74" s="108"/>
+      <c r="AK74" s="108"/>
+      <c r="AL74" s="108"/>
+      <c r="AM74" s="108"/>
+      <c r="AN74" s="108"/>
+      <c r="AO74" s="108"/>
+      <c r="AP74" s="108"/>
+      <c r="AQ74" s="108"/>
+      <c r="AR74" s="108"/>
+      <c r="AS74" s="108"/>
+      <c r="AT74" s="108"/>
+      <c r="AU74" s="108"/>
+      <c r="AV74" s="108"/>
+      <c r="AW74" s="108"/>
+      <c r="AX74" s="108"/>
+      <c r="AY74" s="83"/>
+      <c r="AZ74" s="83"/>
+      <c r="BA74" s="83"/>
+      <c r="BB74" s="83"/>
+      <c r="BC74" s="83"/>
+      <c r="BD74" s="83"/>
+      <c r="BE74" s="83"/>
+      <c r="BF74" s="83"/>
+      <c r="BG74" s="83"/>
+      <c r="BH74" s="83"/>
+      <c r="BI74" s="83"/>
+      <c r="BJ74" s="83"/>
+      <c r="BK74" s="83"/>
+      <c r="BL74" s="83"/>
+      <c r="BM74" s="83"/>
+      <c r="BN74" s="83"/>
+      <c r="BO74" s="83"/>
+      <c r="BP74" s="83"/>
+      <c r="BQ74" s="83"/>
+      <c r="BR74" s="83"/>
+      <c r="BS74" s="83"/>
+      <c r="BT74" s="83"/>
+      <c r="BU74" s="83"/>
+      <c r="BV74" s="83"/>
+      <c r="BW74" s="83"/>
+      <c r="BX74" s="83"/>
+      <c r="BY74" s="83"/>
+      <c r="BZ74" s="83"/>
+      <c r="CA74" s="83"/>
+      <c r="CB74" s="83"/>
+      <c r="CC74" s="83"/>
+      <c r="CD74" s="83"/>
+      <c r="CE74" s="84"/>
+      <c r="CF74" s="84"/>
     </row>
     <row r="75" spans="4:84" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="17"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
-      <c r="W75" s="84"/>
-      <c r="X75" s="84"/>
-      <c r="Y75" s="84"/>
-      <c r="Z75" s="84"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="107"/>
+      <c r="K75" s="107"/>
+      <c r="L75" s="107"/>
+      <c r="M75" s="107"/>
+      <c r="N75" s="107"/>
+      <c r="O75" s="107"/>
+      <c r="P75" s="107"/>
+      <c r="Q75" s="107"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="107"/>
+      <c r="T75" s="107"/>
+      <c r="U75" s="107"/>
+      <c r="V75" s="107"/>
+      <c r="W75" s="107"/>
+      <c r="X75" s="107"/>
+      <c r="Y75" s="107"/>
+      <c r="Z75" s="107"/>
       <c r="AA75" s="17"/>
-      <c r="AB75" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC75" s="74"/>
-      <c r="AD75" s="74"/>
-      <c r="AE75" s="74"/>
-      <c r="AF75" s="74"/>
-      <c r="AG75" s="74"/>
-      <c r="AH75" s="74"/>
-      <c r="AI75" s="74"/>
-      <c r="AJ75" s="74"/>
-      <c r="AK75" s="74"/>
-      <c r="AL75" s="74"/>
-      <c r="AM75" s="74"/>
-      <c r="AN75" s="74"/>
-      <c r="AO75" s="74"/>
-      <c r="AP75" s="74"/>
-      <c r="AQ75" s="74"/>
-      <c r="AR75" s="74"/>
-      <c r="AS75" s="74"/>
-      <c r="AT75" s="74"/>
-      <c r="AU75" s="74"/>
-      <c r="AV75" s="74"/>
-      <c r="AW75" s="74"/>
-      <c r="AX75" s="74"/>
-      <c r="AY75" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ75" s="116"/>
-      <c r="BA75" s="116"/>
-      <c r="BB75" s="116"/>
-      <c r="BC75" s="116"/>
-      <c r="BD75" s="116"/>
-      <c r="BE75" s="116"/>
-      <c r="BF75" s="116"/>
-      <c r="BG75" s="116"/>
-      <c r="BH75" s="116"/>
-      <c r="BI75" s="116"/>
-      <c r="BJ75" s="116"/>
-      <c r="BK75" s="116"/>
-      <c r="BL75" s="116"/>
-      <c r="BM75" s="116"/>
-      <c r="BN75" s="116"/>
-      <c r="BO75" s="116"/>
-      <c r="BP75" s="116"/>
-      <c r="BQ75" s="116"/>
-      <c r="BR75" s="116"/>
-      <c r="BS75" s="116"/>
-      <c r="BT75" s="116"/>
-      <c r="BU75" s="116"/>
-      <c r="BV75" s="116"/>
-      <c r="BW75" s="116"/>
-      <c r="BX75" s="116"/>
-      <c r="BY75" s="116"/>
-      <c r="BZ75" s="116"/>
-      <c r="CA75" s="116"/>
-      <c r="CB75" s="116"/>
-      <c r="CC75" s="116"/>
-      <c r="CD75" s="116"/>
-      <c r="CE75" s="116"/>
-      <c r="CF75" s="117"/>
+      <c r="AB75" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC75" s="95"/>
+      <c r="AD75" s="95"/>
+      <c r="AE75" s="95"/>
+      <c r="AF75" s="95"/>
+      <c r="AG75" s="95"/>
+      <c r="AH75" s="95"/>
+      <c r="AI75" s="95"/>
+      <c r="AJ75" s="95"/>
+      <c r="AK75" s="95"/>
+      <c r="AL75" s="95"/>
+      <c r="AM75" s="95"/>
+      <c r="AN75" s="95"/>
+      <c r="AO75" s="95"/>
+      <c r="AP75" s="95"/>
+      <c r="AQ75" s="95"/>
+      <c r="AR75" s="95"/>
+      <c r="AS75" s="95"/>
+      <c r="AT75" s="95"/>
+      <c r="AU75" s="95"/>
+      <c r="AV75" s="95"/>
+      <c r="AW75" s="95"/>
+      <c r="AX75" s="95"/>
+      <c r="AY75" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ75" s="99"/>
+      <c r="BA75" s="99"/>
+      <c r="BB75" s="99"/>
+      <c r="BC75" s="99"/>
+      <c r="BD75" s="99"/>
+      <c r="BE75" s="99"/>
+      <c r="BF75" s="99"/>
+      <c r="BG75" s="99"/>
+      <c r="BH75" s="99"/>
+      <c r="BI75" s="99"/>
+      <c r="BJ75" s="99"/>
+      <c r="BK75" s="99"/>
+      <c r="BL75" s="99"/>
+      <c r="BM75" s="99"/>
+      <c r="BN75" s="99"/>
+      <c r="BO75" s="99"/>
+      <c r="BP75" s="99"/>
+      <c r="BQ75" s="99"/>
+      <c r="BR75" s="99"/>
+      <c r="BS75" s="99"/>
+      <c r="BT75" s="99"/>
+      <c r="BU75" s="99"/>
+      <c r="BV75" s="99"/>
+      <c r="BW75" s="99"/>
+      <c r="BX75" s="99"/>
+      <c r="BY75" s="99"/>
+      <c r="BZ75" s="99"/>
+      <c r="CA75" s="99"/>
+      <c r="CB75" s="99"/>
+      <c r="CC75" s="99"/>
+      <c r="CD75" s="99"/>
+      <c r="CE75" s="99"/>
+      <c r="CF75" s="100"/>
     </row>
     <row r="76" spans="4:84" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="R76" s="84"/>
-      <c r="S76" s="84"/>
-      <c r="T76" s="84"/>
-      <c r="U76" s="84"/>
-      <c r="V76" s="84"/>
-      <c r="W76" s="84"/>
-      <c r="X76" s="84"/>
-      <c r="Y76" s="84"/>
-      <c r="Z76" s="84"/>
+      <c r="F76" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="107"/>
+      <c r="K76" s="107"/>
+      <c r="L76" s="107"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="107"/>
+      <c r="O76" s="107"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="R76" s="107"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="107"/>
+      <c r="U76" s="107"/>
+      <c r="V76" s="107"/>
+      <c r="W76" s="107"/>
+      <c r="X76" s="107"/>
+      <c r="Y76" s="107"/>
+      <c r="Z76" s="107"/>
       <c r="AA76" s="17"/>
-      <c r="AB76" s="74"/>
-      <c r="AC76" s="74"/>
-      <c r="AD76" s="74"/>
-      <c r="AE76" s="74"/>
-      <c r="AF76" s="74"/>
-      <c r="AG76" s="74"/>
-      <c r="AH76" s="74"/>
-      <c r="AI76" s="74"/>
-      <c r="AJ76" s="74"/>
-      <c r="AK76" s="74"/>
-      <c r="AL76" s="74"/>
-      <c r="AM76" s="74"/>
-      <c r="AN76" s="74"/>
-      <c r="AO76" s="74"/>
-      <c r="AP76" s="74"/>
-      <c r="AQ76" s="74"/>
-      <c r="AR76" s="74"/>
-      <c r="AS76" s="74"/>
-      <c r="AT76" s="74"/>
-      <c r="AU76" s="74"/>
-      <c r="AV76" s="74"/>
-      <c r="AW76" s="74"/>
-      <c r="AX76" s="74"/>
-      <c r="AY76" s="118"/>
-      <c r="AZ76" s="119"/>
-      <c r="BA76" s="119"/>
-      <c r="BB76" s="119"/>
-      <c r="BC76" s="119"/>
-      <c r="BD76" s="119"/>
-      <c r="BE76" s="119"/>
-      <c r="BF76" s="119"/>
-      <c r="BG76" s="119"/>
-      <c r="BH76" s="119"/>
-      <c r="BI76" s="119"/>
-      <c r="BJ76" s="119"/>
-      <c r="BK76" s="119"/>
-      <c r="BL76" s="119"/>
-      <c r="BM76" s="119"/>
-      <c r="BN76" s="119"/>
-      <c r="BO76" s="119"/>
-      <c r="BP76" s="119"/>
-      <c r="BQ76" s="119"/>
-      <c r="BR76" s="119"/>
-      <c r="BS76" s="119"/>
-      <c r="BT76" s="119"/>
-      <c r="BU76" s="119"/>
-      <c r="BV76" s="119"/>
-      <c r="BW76" s="119"/>
-      <c r="BX76" s="119"/>
-      <c r="BY76" s="119"/>
-      <c r="BZ76" s="119"/>
-      <c r="CA76" s="119"/>
-      <c r="CB76" s="119"/>
-      <c r="CC76" s="119"/>
-      <c r="CD76" s="119"/>
-      <c r="CE76" s="119"/>
-      <c r="CF76" s="120"/>
+      <c r="AB76" s="95"/>
+      <c r="AC76" s="95"/>
+      <c r="AD76" s="95"/>
+      <c r="AE76" s="95"/>
+      <c r="AF76" s="95"/>
+      <c r="AG76" s="95"/>
+      <c r="AH76" s="95"/>
+      <c r="AI76" s="95"/>
+      <c r="AJ76" s="95"/>
+      <c r="AK76" s="95"/>
+      <c r="AL76" s="95"/>
+      <c r="AM76" s="95"/>
+      <c r="AN76" s="95"/>
+      <c r="AO76" s="95"/>
+      <c r="AP76" s="95"/>
+      <c r="AQ76" s="95"/>
+      <c r="AR76" s="95"/>
+      <c r="AS76" s="95"/>
+      <c r="AT76" s="95"/>
+      <c r="AU76" s="95"/>
+      <c r="AV76" s="95"/>
+      <c r="AW76" s="95"/>
+      <c r="AX76" s="95"/>
+      <c r="AY76" s="101"/>
+      <c r="AZ76" s="102"/>
+      <c r="BA76" s="102"/>
+      <c r="BB76" s="102"/>
+      <c r="BC76" s="102"/>
+      <c r="BD76" s="102"/>
+      <c r="BE76" s="102"/>
+      <c r="BF76" s="102"/>
+      <c r="BG76" s="102"/>
+      <c r="BH76" s="102"/>
+      <c r="BI76" s="102"/>
+      <c r="BJ76" s="102"/>
+      <c r="BK76" s="102"/>
+      <c r="BL76" s="102"/>
+      <c r="BM76" s="102"/>
+      <c r="BN76" s="102"/>
+      <c r="BO76" s="102"/>
+      <c r="BP76" s="102"/>
+      <c r="BQ76" s="102"/>
+      <c r="BR76" s="102"/>
+      <c r="BS76" s="102"/>
+      <c r="BT76" s="102"/>
+      <c r="BU76" s="102"/>
+      <c r="BV76" s="102"/>
+      <c r="BW76" s="102"/>
+      <c r="BX76" s="102"/>
+      <c r="BY76" s="102"/>
+      <c r="BZ76" s="102"/>
+      <c r="CA76" s="102"/>
+      <c r="CB76" s="102"/>
+      <c r="CC76" s="102"/>
+      <c r="CD76" s="102"/>
+      <c r="CE76" s="102"/>
+      <c r="CF76" s="103"/>
     </row>
     <row r="77" spans="4:84" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="17"/>
@@ -7944,154 +7962,154 @@
       <c r="Y77" s="17"/>
       <c r="Z77" s="17"/>
       <c r="AA77" s="17"/>
-      <c r="AB77" s="74"/>
-      <c r="AC77" s="74"/>
-      <c r="AD77" s="74"/>
-      <c r="AE77" s="74"/>
-      <c r="AF77" s="74"/>
-      <c r="AG77" s="74"/>
-      <c r="AH77" s="74"/>
-      <c r="AI77" s="74"/>
-      <c r="AJ77" s="74"/>
-      <c r="AK77" s="74"/>
-      <c r="AL77" s="74"/>
-      <c r="AM77" s="74"/>
-      <c r="AN77" s="74"/>
-      <c r="AO77" s="74"/>
-      <c r="AP77" s="74"/>
-      <c r="AQ77" s="74"/>
-      <c r="AR77" s="74"/>
-      <c r="AS77" s="74"/>
-      <c r="AT77" s="74"/>
-      <c r="AU77" s="74"/>
-      <c r="AV77" s="74"/>
-      <c r="AW77" s="74"/>
-      <c r="AX77" s="74"/>
-      <c r="AY77" s="121"/>
-      <c r="AZ77" s="122"/>
-      <c r="BA77" s="122"/>
-      <c r="BB77" s="122"/>
-      <c r="BC77" s="122"/>
-      <c r="BD77" s="122"/>
-      <c r="BE77" s="122"/>
-      <c r="BF77" s="122"/>
-      <c r="BG77" s="122"/>
-      <c r="BH77" s="122"/>
-      <c r="BI77" s="122"/>
-      <c r="BJ77" s="122"/>
-      <c r="BK77" s="122"/>
-      <c r="BL77" s="122"/>
-      <c r="BM77" s="122"/>
-      <c r="BN77" s="122"/>
-      <c r="BO77" s="122"/>
-      <c r="BP77" s="122"/>
-      <c r="BQ77" s="122"/>
-      <c r="BR77" s="122"/>
-      <c r="BS77" s="122"/>
-      <c r="BT77" s="122"/>
-      <c r="BU77" s="122"/>
-      <c r="BV77" s="122"/>
-      <c r="BW77" s="122"/>
-      <c r="BX77" s="122"/>
-      <c r="BY77" s="122"/>
-      <c r="BZ77" s="122"/>
-      <c r="CA77" s="122"/>
-      <c r="CB77" s="122"/>
-      <c r="CC77" s="122"/>
-      <c r="CD77" s="122"/>
-      <c r="CE77" s="122"/>
-      <c r="CF77" s="123"/>
+      <c r="AB77" s="95"/>
+      <c r="AC77" s="95"/>
+      <c r="AD77" s="95"/>
+      <c r="AE77" s="95"/>
+      <c r="AF77" s="95"/>
+      <c r="AG77" s="95"/>
+      <c r="AH77" s="95"/>
+      <c r="AI77" s="95"/>
+      <c r="AJ77" s="95"/>
+      <c r="AK77" s="95"/>
+      <c r="AL77" s="95"/>
+      <c r="AM77" s="95"/>
+      <c r="AN77" s="95"/>
+      <c r="AO77" s="95"/>
+      <c r="AP77" s="95"/>
+      <c r="AQ77" s="95"/>
+      <c r="AR77" s="95"/>
+      <c r="AS77" s="95"/>
+      <c r="AT77" s="95"/>
+      <c r="AU77" s="95"/>
+      <c r="AV77" s="95"/>
+      <c r="AW77" s="95"/>
+      <c r="AX77" s="95"/>
+      <c r="AY77" s="104"/>
+      <c r="AZ77" s="105"/>
+      <c r="BA77" s="105"/>
+      <c r="BB77" s="105"/>
+      <c r="BC77" s="105"/>
+      <c r="BD77" s="105"/>
+      <c r="BE77" s="105"/>
+      <c r="BF77" s="105"/>
+      <c r="BG77" s="105"/>
+      <c r="BH77" s="105"/>
+      <c r="BI77" s="105"/>
+      <c r="BJ77" s="105"/>
+      <c r="BK77" s="105"/>
+      <c r="BL77" s="105"/>
+      <c r="BM77" s="105"/>
+      <c r="BN77" s="105"/>
+      <c r="BO77" s="105"/>
+      <c r="BP77" s="105"/>
+      <c r="BQ77" s="105"/>
+      <c r="BR77" s="105"/>
+      <c r="BS77" s="105"/>
+      <c r="BT77" s="105"/>
+      <c r="BU77" s="105"/>
+      <c r="BV77" s="105"/>
+      <c r="BW77" s="105"/>
+      <c r="BX77" s="105"/>
+      <c r="BY77" s="105"/>
+      <c r="BZ77" s="105"/>
+      <c r="CA77" s="105"/>
+      <c r="CB77" s="105"/>
+      <c r="CC77" s="105"/>
+      <c r="CD77" s="105"/>
+      <c r="CE77" s="105"/>
+      <c r="CF77" s="106"/>
     </row>
     <row r="78" spans="4:84" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
+      <c r="F78" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92"/>
       <c r="R78" s="17"/>
-      <c r="S78" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="T78" s="84"/>
-      <c r="U78" s="84"/>
-      <c r="V78" s="84"/>
-      <c r="W78" s="84"/>
-      <c r="X78" s="84"/>
-      <c r="Y78" s="84"/>
-      <c r="Z78" s="84"/>
-      <c r="AA78" s="84"/>
-      <c r="AB78" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC78" s="74"/>
-      <c r="AD78" s="74"/>
-      <c r="AE78" s="74"/>
-      <c r="AF78" s="74"/>
-      <c r="AG78" s="74"/>
-      <c r="AH78" s="74"/>
-      <c r="AI78" s="74"/>
-      <c r="AJ78" s="74"/>
-      <c r="AK78" s="74"/>
-      <c r="AL78" s="74"/>
-      <c r="AM78" s="74"/>
-      <c r="AN78" s="74"/>
-      <c r="AO78" s="74"/>
-      <c r="AP78" s="74"/>
-      <c r="AQ78" s="74"/>
-      <c r="AR78" s="74"/>
-      <c r="AS78" s="74"/>
-      <c r="AT78" s="74"/>
-      <c r="AU78" s="74"/>
-      <c r="AV78" s="74"/>
-      <c r="AW78" s="74"/>
-      <c r="AX78" s="74"/>
-      <c r="AY78" s="85"/>
-      <c r="AZ78" s="85"/>
-      <c r="BA78" s="85"/>
-      <c r="BB78" s="85"/>
-      <c r="BC78" s="85"/>
-      <c r="BD78" s="85"/>
-      <c r="BE78" s="85"/>
-      <c r="BF78" s="85"/>
-      <c r="BG78" s="85"/>
-      <c r="BH78" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI78" s="86"/>
-      <c r="BJ78" s="86"/>
-      <c r="BK78" s="86"/>
-      <c r="BL78" s="86"/>
-      <c r="BM78" s="86"/>
-      <c r="BN78" s="86"/>
-      <c r="BO78" s="86"/>
-      <c r="BP78" s="86"/>
-      <c r="BQ78" s="86"/>
-      <c r="BR78" s="86"/>
-      <c r="BS78" s="86"/>
-      <c r="BT78" s="86"/>
-      <c r="BU78" s="86"/>
-      <c r="BV78" s="86"/>
-      <c r="BW78" s="86"/>
-      <c r="BX78" s="86"/>
-      <c r="BY78" s="86"/>
-      <c r="BZ78" s="86"/>
-      <c r="CA78" s="86"/>
-      <c r="CB78" s="86"/>
-      <c r="CC78" s="83"/>
-      <c r="CD78" s="83"/>
-      <c r="CE78" s="83"/>
-      <c r="CF78" s="83"/>
+      <c r="S78" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="T78" s="107"/>
+      <c r="U78" s="107"/>
+      <c r="V78" s="107"/>
+      <c r="W78" s="107"/>
+      <c r="X78" s="107"/>
+      <c r="Y78" s="107"/>
+      <c r="Z78" s="107"/>
+      <c r="AA78" s="107"/>
+      <c r="AB78" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC78" s="95"/>
+      <c r="AD78" s="95"/>
+      <c r="AE78" s="95"/>
+      <c r="AF78" s="95"/>
+      <c r="AG78" s="95"/>
+      <c r="AH78" s="95"/>
+      <c r="AI78" s="95"/>
+      <c r="AJ78" s="95"/>
+      <c r="AK78" s="95"/>
+      <c r="AL78" s="95"/>
+      <c r="AM78" s="95"/>
+      <c r="AN78" s="95"/>
+      <c r="AO78" s="95"/>
+      <c r="AP78" s="95"/>
+      <c r="AQ78" s="95"/>
+      <c r="AR78" s="95"/>
+      <c r="AS78" s="95"/>
+      <c r="AT78" s="95"/>
+      <c r="AU78" s="95"/>
+      <c r="AV78" s="95"/>
+      <c r="AW78" s="95"/>
+      <c r="AX78" s="95"/>
+      <c r="AY78" s="109"/>
+      <c r="AZ78" s="109"/>
+      <c r="BA78" s="109"/>
+      <c r="BB78" s="109"/>
+      <c r="BC78" s="109"/>
+      <c r="BD78" s="109"/>
+      <c r="BE78" s="109"/>
+      <c r="BF78" s="109"/>
+      <c r="BG78" s="109"/>
+      <c r="BH78" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI78" s="91"/>
+      <c r="BJ78" s="91"/>
+      <c r="BK78" s="91"/>
+      <c r="BL78" s="91"/>
+      <c r="BM78" s="91"/>
+      <c r="BN78" s="91"/>
+      <c r="BO78" s="91"/>
+      <c r="BP78" s="91"/>
+      <c r="BQ78" s="91"/>
+      <c r="BR78" s="91"/>
+      <c r="BS78" s="91"/>
+      <c r="BT78" s="91"/>
+      <c r="BU78" s="91"/>
+      <c r="BV78" s="91"/>
+      <c r="BW78" s="91"/>
+      <c r="BX78" s="91"/>
+      <c r="BY78" s="91"/>
+      <c r="BZ78" s="91"/>
+      <c r="CA78" s="91"/>
+      <c r="CB78" s="91"/>
+      <c r="CC78" s="97"/>
+      <c r="CD78" s="97"/>
+      <c r="CE78" s="97"/>
+      <c r="CF78" s="97"/>
     </row>
     <row r="79" spans="4:84" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="17"/>
@@ -8118,38 +8136,38 @@
       <c r="Y79" s="17"/>
       <c r="Z79" s="17"/>
       <c r="AA79" s="17"/>
-      <c r="AB79" s="74"/>
-      <c r="AC79" s="74"/>
-      <c r="AD79" s="74"/>
-      <c r="AE79" s="74"/>
-      <c r="AF79" s="74"/>
-      <c r="AG79" s="74"/>
-      <c r="AH79" s="74"/>
-      <c r="AI79" s="74"/>
-      <c r="AJ79" s="74"/>
-      <c r="AK79" s="74"/>
-      <c r="AL79" s="74"/>
-      <c r="AM79" s="74"/>
-      <c r="AN79" s="74"/>
-      <c r="AO79" s="74"/>
-      <c r="AP79" s="74"/>
-      <c r="AQ79" s="74"/>
-      <c r="AR79" s="74"/>
-      <c r="AS79" s="74"/>
-      <c r="AT79" s="74"/>
-      <c r="AU79" s="74"/>
-      <c r="AV79" s="74"/>
-      <c r="AW79" s="74"/>
-      <c r="AX79" s="74"/>
-      <c r="AY79" s="85"/>
-      <c r="AZ79" s="85"/>
-      <c r="BA79" s="85"/>
-      <c r="BB79" s="85"/>
-      <c r="BC79" s="85"/>
-      <c r="BD79" s="85"/>
-      <c r="BE79" s="85"/>
-      <c r="BF79" s="85"/>
-      <c r="BG79" s="85"/>
+      <c r="AB79" s="95"/>
+      <c r="AC79" s="95"/>
+      <c r="AD79" s="95"/>
+      <c r="AE79" s="95"/>
+      <c r="AF79" s="95"/>
+      <c r="AG79" s="95"/>
+      <c r="AH79" s="95"/>
+      <c r="AI79" s="95"/>
+      <c r="AJ79" s="95"/>
+      <c r="AK79" s="95"/>
+      <c r="AL79" s="95"/>
+      <c r="AM79" s="95"/>
+      <c r="AN79" s="95"/>
+      <c r="AO79" s="95"/>
+      <c r="AP79" s="95"/>
+      <c r="AQ79" s="95"/>
+      <c r="AR79" s="95"/>
+      <c r="AS79" s="95"/>
+      <c r="AT79" s="95"/>
+      <c r="AU79" s="95"/>
+      <c r="AV79" s="95"/>
+      <c r="AW79" s="95"/>
+      <c r="AX79" s="95"/>
+      <c r="AY79" s="109"/>
+      <c r="AZ79" s="109"/>
+      <c r="BA79" s="109"/>
+      <c r="BB79" s="109"/>
+      <c r="BC79" s="109"/>
+      <c r="BD79" s="109"/>
+      <c r="BE79" s="109"/>
+      <c r="BF79" s="109"/>
+      <c r="BG79" s="109"/>
       <c r="BH79" s="17"/>
       <c r="BI79" s="17"/>
       <c r="BJ79" s="17"/>
@@ -8171,10 +8189,10 @@
       <c r="BZ79" s="17"/>
       <c r="CA79" s="17"/>
       <c r="CB79" s="17"/>
-      <c r="CC79" s="83"/>
-      <c r="CD79" s="83"/>
-      <c r="CE79" s="83"/>
-      <c r="CF79" s="83"/>
+      <c r="CC79" s="97"/>
+      <c r="CD79" s="97"/>
+      <c r="CE79" s="97"/>
+      <c r="CF79" s="97"/>
     </row>
     <row r="80" spans="4:84" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="17"/>
@@ -8201,154 +8219,154 @@
       <c r="Y80" s="17"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="17"/>
-      <c r="AB80" s="74"/>
-      <c r="AC80" s="74"/>
-      <c r="AD80" s="74"/>
-      <c r="AE80" s="74"/>
-      <c r="AF80" s="74"/>
-      <c r="AG80" s="74"/>
-      <c r="AH80" s="74"/>
-      <c r="AI80" s="74"/>
-      <c r="AJ80" s="74"/>
-      <c r="AK80" s="74"/>
-      <c r="AL80" s="74"/>
-      <c r="AM80" s="74"/>
-      <c r="AN80" s="74"/>
-      <c r="AO80" s="74"/>
-      <c r="AP80" s="74"/>
-      <c r="AQ80" s="74"/>
-      <c r="AR80" s="74"/>
-      <c r="AS80" s="74"/>
-      <c r="AT80" s="74"/>
-      <c r="AU80" s="74"/>
-      <c r="AV80" s="74"/>
-      <c r="AW80" s="74"/>
-      <c r="AX80" s="74"/>
-      <c r="AY80" s="88"/>
-      <c r="AZ80" s="88"/>
-      <c r="BA80" s="88"/>
-      <c r="BB80" s="88"/>
-      <c r="BC80" s="88"/>
-      <c r="BD80" s="88"/>
-      <c r="BE80" s="88"/>
-      <c r="BF80" s="88"/>
-      <c r="BG80" s="88"/>
-      <c r="BH80" s="88"/>
-      <c r="BI80" s="88"/>
-      <c r="BJ80" s="88"/>
-      <c r="BK80" s="88"/>
-      <c r="BL80" s="88"/>
-      <c r="BM80" s="88"/>
-      <c r="BN80" s="88"/>
-      <c r="BO80" s="88"/>
-      <c r="BP80" s="88"/>
-      <c r="BQ80" s="88"/>
-      <c r="BR80" s="88"/>
-      <c r="BS80" s="88"/>
-      <c r="BT80" s="88"/>
-      <c r="BU80" s="88"/>
-      <c r="BV80" s="88"/>
-      <c r="BW80" s="88"/>
-      <c r="BX80" s="88"/>
-      <c r="BY80" s="88"/>
-      <c r="BZ80" s="88"/>
-      <c r="CA80" s="88"/>
-      <c r="CB80" s="88"/>
-      <c r="CC80" s="89"/>
-      <c r="CD80" s="89"/>
-      <c r="CE80" s="89"/>
-      <c r="CF80" s="89"/>
+      <c r="AB80" s="95"/>
+      <c r="AC80" s="95"/>
+      <c r="AD80" s="95"/>
+      <c r="AE80" s="95"/>
+      <c r="AF80" s="95"/>
+      <c r="AG80" s="95"/>
+      <c r="AH80" s="95"/>
+      <c r="AI80" s="95"/>
+      <c r="AJ80" s="95"/>
+      <c r="AK80" s="95"/>
+      <c r="AL80" s="95"/>
+      <c r="AM80" s="95"/>
+      <c r="AN80" s="95"/>
+      <c r="AO80" s="95"/>
+      <c r="AP80" s="95"/>
+      <c r="AQ80" s="95"/>
+      <c r="AR80" s="95"/>
+      <c r="AS80" s="95"/>
+      <c r="AT80" s="95"/>
+      <c r="AU80" s="95"/>
+      <c r="AV80" s="95"/>
+      <c r="AW80" s="95"/>
+      <c r="AX80" s="95"/>
+      <c r="AY80" s="93"/>
+      <c r="AZ80" s="93"/>
+      <c r="BA80" s="93"/>
+      <c r="BB80" s="93"/>
+      <c r="BC80" s="93"/>
+      <c r="BD80" s="93"/>
+      <c r="BE80" s="93"/>
+      <c r="BF80" s="93"/>
+      <c r="BG80" s="93"/>
+      <c r="BH80" s="93"/>
+      <c r="BI80" s="93"/>
+      <c r="BJ80" s="93"/>
+      <c r="BK80" s="93"/>
+      <c r="BL80" s="93"/>
+      <c r="BM80" s="93"/>
+      <c r="BN80" s="93"/>
+      <c r="BO80" s="93"/>
+      <c r="BP80" s="93"/>
+      <c r="BQ80" s="93"/>
+      <c r="BR80" s="93"/>
+      <c r="BS80" s="93"/>
+      <c r="BT80" s="93"/>
+      <c r="BU80" s="93"/>
+      <c r="BV80" s="93"/>
+      <c r="BW80" s="93"/>
+      <c r="BX80" s="93"/>
+      <c r="BY80" s="93"/>
+      <c r="BZ80" s="93"/>
+      <c r="CA80" s="93"/>
+      <c r="CB80" s="93"/>
+      <c r="CC80" s="94"/>
+      <c r="CD80" s="94"/>
+      <c r="CE80" s="94"/>
+      <c r="CF80" s="94"/>
     </row>
     <row r="81" spans="1:84" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84"/>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="84"/>
+      <c r="D81" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="107"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="107"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="84"/>
-      <c r="S81" s="84"/>
-      <c r="T81" s="84"/>
-      <c r="U81" s="84"/>
-      <c r="V81" s="84"/>
-      <c r="W81" s="84"/>
-      <c r="X81" s="84"/>
-      <c r="Y81" s="84"/>
-      <c r="Z81" s="84"/>
+      <c r="P81" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="107"/>
+      <c r="T81" s="107"/>
+      <c r="U81" s="107"/>
+      <c r="V81" s="107"/>
+      <c r="W81" s="107"/>
+      <c r="X81" s="107"/>
+      <c r="Y81" s="107"/>
+      <c r="Z81" s="107"/>
       <c r="AA81" s="17"/>
-      <c r="AB81" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC81" s="74"/>
-      <c r="AD81" s="74"/>
-      <c r="AE81" s="74"/>
-      <c r="AF81" s="74"/>
-      <c r="AG81" s="74"/>
-      <c r="AH81" s="74"/>
-      <c r="AI81" s="74"/>
-      <c r="AJ81" s="74"/>
-      <c r="AK81" s="74"/>
-      <c r="AL81" s="74"/>
-      <c r="AM81" s="74"/>
-      <c r="AN81" s="74"/>
-      <c r="AO81" s="74"/>
-      <c r="AP81" s="74"/>
-      <c r="AQ81" s="74"/>
-      <c r="AR81" s="74"/>
-      <c r="AS81" s="74"/>
-      <c r="AT81" s="74"/>
-      <c r="AU81" s="74"/>
-      <c r="AV81" s="74"/>
-      <c r="AW81" s="74"/>
-      <c r="AX81" s="74"/>
-      <c r="AY81" s="75"/>
-      <c r="AZ81" s="75"/>
-      <c r="BA81" s="75"/>
-      <c r="BB81" s="75"/>
-      <c r="BC81" s="75"/>
-      <c r="BD81" s="75"/>
-      <c r="BE81" s="75"/>
-      <c r="BF81" s="75"/>
-      <c r="BG81" s="75"/>
-      <c r="BH81" s="75"/>
-      <c r="BI81" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ81" s="76"/>
-      <c r="BK81" s="76"/>
-      <c r="BL81" s="76"/>
-      <c r="BM81" s="76"/>
-      <c r="BN81" s="76"/>
-      <c r="BO81" s="76"/>
-      <c r="BP81" s="76"/>
-      <c r="BQ81" s="76"/>
-      <c r="BR81" s="76"/>
-      <c r="BS81" s="76"/>
-      <c r="BT81" s="76"/>
-      <c r="BU81" s="76"/>
-      <c r="BV81" s="76"/>
-      <c r="BW81" s="76"/>
-      <c r="BX81" s="76"/>
-      <c r="BY81" s="76"/>
-      <c r="BZ81" s="76"/>
-      <c r="CA81" s="76"/>
-      <c r="CB81" s="76"/>
-      <c r="CC81" s="77"/>
-      <c r="CD81" s="77"/>
-      <c r="CE81" s="77"/>
-      <c r="CF81" s="77"/>
+      <c r="AB81" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC81" s="95"/>
+      <c r="AD81" s="95"/>
+      <c r="AE81" s="95"/>
+      <c r="AF81" s="95"/>
+      <c r="AG81" s="95"/>
+      <c r="AH81" s="95"/>
+      <c r="AI81" s="95"/>
+      <c r="AJ81" s="95"/>
+      <c r="AK81" s="95"/>
+      <c r="AL81" s="95"/>
+      <c r="AM81" s="95"/>
+      <c r="AN81" s="95"/>
+      <c r="AO81" s="95"/>
+      <c r="AP81" s="95"/>
+      <c r="AQ81" s="95"/>
+      <c r="AR81" s="95"/>
+      <c r="AS81" s="95"/>
+      <c r="AT81" s="95"/>
+      <c r="AU81" s="95"/>
+      <c r="AV81" s="95"/>
+      <c r="AW81" s="95"/>
+      <c r="AX81" s="95"/>
+      <c r="AY81" s="80"/>
+      <c r="AZ81" s="80"/>
+      <c r="BA81" s="80"/>
+      <c r="BB81" s="80"/>
+      <c r="BC81" s="80"/>
+      <c r="BD81" s="80"/>
+      <c r="BE81" s="80"/>
+      <c r="BF81" s="80"/>
+      <c r="BG81" s="80"/>
+      <c r="BH81" s="80"/>
+      <c r="BI81" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ81" s="81"/>
+      <c r="BK81" s="81"/>
+      <c r="BL81" s="81"/>
+      <c r="BM81" s="81"/>
+      <c r="BN81" s="81"/>
+      <c r="BO81" s="81"/>
+      <c r="BP81" s="81"/>
+      <c r="BQ81" s="81"/>
+      <c r="BR81" s="81"/>
+      <c r="BS81" s="81"/>
+      <c r="BT81" s="81"/>
+      <c r="BU81" s="81"/>
+      <c r="BV81" s="81"/>
+      <c r="BW81" s="81"/>
+      <c r="BX81" s="81"/>
+      <c r="BY81" s="81"/>
+      <c r="BZ81" s="81"/>
+      <c r="CA81" s="81"/>
+      <c r="CB81" s="81"/>
+      <c r="CC81" s="82"/>
+      <c r="CD81" s="82"/>
+      <c r="CE81" s="82"/>
+      <c r="CF81" s="82"/>
     </row>
     <row r="82" spans="1:84" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="17"/>
@@ -8375,39 +8393,39 @@
       <c r="Y82" s="17"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="17"/>
-      <c r="AB82" s="74"/>
-      <c r="AC82" s="74"/>
-      <c r="AD82" s="74"/>
-      <c r="AE82" s="74"/>
-      <c r="AF82" s="74"/>
-      <c r="AG82" s="74"/>
-      <c r="AH82" s="74"/>
-      <c r="AI82" s="74"/>
-      <c r="AJ82" s="74"/>
-      <c r="AK82" s="74"/>
-      <c r="AL82" s="74"/>
-      <c r="AM82" s="74"/>
-      <c r="AN82" s="74"/>
-      <c r="AO82" s="74"/>
-      <c r="AP82" s="74"/>
-      <c r="AQ82" s="74"/>
-      <c r="AR82" s="74"/>
-      <c r="AS82" s="74"/>
-      <c r="AT82" s="74"/>
-      <c r="AU82" s="74"/>
-      <c r="AV82" s="74"/>
-      <c r="AW82" s="74"/>
-      <c r="AX82" s="74"/>
-      <c r="AY82" s="75"/>
-      <c r="AZ82" s="75"/>
-      <c r="BA82" s="75"/>
-      <c r="BB82" s="75"/>
-      <c r="BC82" s="75"/>
-      <c r="BD82" s="75"/>
-      <c r="BE82" s="75"/>
-      <c r="BF82" s="75"/>
-      <c r="BG82" s="75"/>
-      <c r="BH82" s="75"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="95"/>
+      <c r="AD82" s="95"/>
+      <c r="AE82" s="95"/>
+      <c r="AF82" s="95"/>
+      <c r="AG82" s="95"/>
+      <c r="AH82" s="95"/>
+      <c r="AI82" s="95"/>
+      <c r="AJ82" s="95"/>
+      <c r="AK82" s="95"/>
+      <c r="AL82" s="95"/>
+      <c r="AM82" s="95"/>
+      <c r="AN82" s="95"/>
+      <c r="AO82" s="95"/>
+      <c r="AP82" s="95"/>
+      <c r="AQ82" s="95"/>
+      <c r="AR82" s="95"/>
+      <c r="AS82" s="95"/>
+      <c r="AT82" s="95"/>
+      <c r="AU82" s="95"/>
+      <c r="AV82" s="95"/>
+      <c r="AW82" s="95"/>
+      <c r="AX82" s="95"/>
+      <c r="AY82" s="80"/>
+      <c r="AZ82" s="80"/>
+      <c r="BA82" s="80"/>
+      <c r="BB82" s="80"/>
+      <c r="BC82" s="80"/>
+      <c r="BD82" s="80"/>
+      <c r="BE82" s="80"/>
+      <c r="BF82" s="80"/>
+      <c r="BG82" s="80"/>
+      <c r="BH82" s="80"/>
       <c r="BI82" s="17"/>
       <c r="BJ82" s="17"/>
       <c r="BK82" s="17"/>
@@ -8428,10 +8446,10 @@
       <c r="BZ82" s="17"/>
       <c r="CA82" s="17"/>
       <c r="CB82" s="17"/>
-      <c r="CC82" s="77"/>
-      <c r="CD82" s="77"/>
-      <c r="CE82" s="77"/>
-      <c r="CF82" s="77"/>
+      <c r="CC82" s="82"/>
+      <c r="CD82" s="82"/>
+      <c r="CE82" s="82"/>
+      <c r="CF82" s="82"/>
     </row>
     <row r="83" spans="1:84" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="17"/>
@@ -8458,807 +8476,807 @@
       <c r="Y83" s="17"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="17"/>
-      <c r="AB83" s="74"/>
-      <c r="AC83" s="74"/>
-      <c r="AD83" s="74"/>
-      <c r="AE83" s="74"/>
-      <c r="AF83" s="74"/>
-      <c r="AG83" s="74"/>
-      <c r="AH83" s="74"/>
-      <c r="AI83" s="74"/>
-      <c r="AJ83" s="74"/>
-      <c r="AK83" s="74"/>
-      <c r="AL83" s="74"/>
-      <c r="AM83" s="74"/>
-      <c r="AN83" s="74"/>
-      <c r="AO83" s="74"/>
-      <c r="AP83" s="74"/>
-      <c r="AQ83" s="74"/>
-      <c r="AR83" s="74"/>
-      <c r="AS83" s="74"/>
-      <c r="AT83" s="74"/>
-      <c r="AU83" s="74"/>
-      <c r="AV83" s="74"/>
-      <c r="AW83" s="74"/>
-      <c r="AX83" s="74"/>
-      <c r="AY83" s="78"/>
-      <c r="AZ83" s="78"/>
-      <c r="BA83" s="78"/>
-      <c r="BB83" s="78"/>
-      <c r="BC83" s="78"/>
-      <c r="BD83" s="78"/>
-      <c r="BE83" s="78"/>
-      <c r="BF83" s="78"/>
-      <c r="BG83" s="78"/>
-      <c r="BH83" s="78"/>
-      <c r="BI83" s="78"/>
-      <c r="BJ83" s="78"/>
-      <c r="BK83" s="78"/>
-      <c r="BL83" s="78"/>
-      <c r="BM83" s="78"/>
-      <c r="BN83" s="78"/>
-      <c r="BO83" s="78"/>
-      <c r="BP83" s="78"/>
-      <c r="BQ83" s="78"/>
-      <c r="BR83" s="78"/>
-      <c r="BS83" s="78"/>
-      <c r="BT83" s="78"/>
-      <c r="BU83" s="78"/>
-      <c r="BV83" s="78"/>
-      <c r="BW83" s="78"/>
-      <c r="BX83" s="78"/>
-      <c r="BY83" s="78"/>
-      <c r="BZ83" s="78"/>
-      <c r="CA83" s="78"/>
-      <c r="CB83" s="78"/>
-      <c r="CC83" s="79"/>
-      <c r="CD83" s="79"/>
-      <c r="CE83" s="79"/>
-      <c r="CF83" s="79"/>
+      <c r="AB83" s="95"/>
+      <c r="AC83" s="95"/>
+      <c r="AD83" s="95"/>
+      <c r="AE83" s="95"/>
+      <c r="AF83" s="95"/>
+      <c r="AG83" s="95"/>
+      <c r="AH83" s="95"/>
+      <c r="AI83" s="95"/>
+      <c r="AJ83" s="95"/>
+      <c r="AK83" s="95"/>
+      <c r="AL83" s="95"/>
+      <c r="AM83" s="95"/>
+      <c r="AN83" s="95"/>
+      <c r="AO83" s="95"/>
+      <c r="AP83" s="95"/>
+      <c r="AQ83" s="95"/>
+      <c r="AR83" s="95"/>
+      <c r="AS83" s="95"/>
+      <c r="AT83" s="95"/>
+      <c r="AU83" s="95"/>
+      <c r="AV83" s="95"/>
+      <c r="AW83" s="95"/>
+      <c r="AX83" s="95"/>
+      <c r="AY83" s="83"/>
+      <c r="AZ83" s="83"/>
+      <c r="BA83" s="83"/>
+      <c r="BB83" s="83"/>
+      <c r="BC83" s="83"/>
+      <c r="BD83" s="83"/>
+      <c r="BE83" s="83"/>
+      <c r="BF83" s="83"/>
+      <c r="BG83" s="83"/>
+      <c r="BH83" s="83"/>
+      <c r="BI83" s="83"/>
+      <c r="BJ83" s="83"/>
+      <c r="BK83" s="83"/>
+      <c r="BL83" s="83"/>
+      <c r="BM83" s="83"/>
+      <c r="BN83" s="83"/>
+      <c r="BO83" s="83"/>
+      <c r="BP83" s="83"/>
+      <c r="BQ83" s="83"/>
+      <c r="BR83" s="83"/>
+      <c r="BS83" s="83"/>
+      <c r="BT83" s="83"/>
+      <c r="BU83" s="83"/>
+      <c r="BV83" s="83"/>
+      <c r="BW83" s="83"/>
+      <c r="BX83" s="83"/>
+      <c r="BY83" s="83"/>
+      <c r="BZ83" s="83"/>
+      <c r="CA83" s="83"/>
+      <c r="CB83" s="83"/>
+      <c r="CC83" s="84"/>
+      <c r="CD83" s="84"/>
+      <c r="CE83" s="84"/>
+      <c r="CF83" s="84"/>
     </row>
     <row r="84" spans="1:84" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="106"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="106"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="106"/>
-      <c r="S84" s="106"/>
-      <c r="T84" s="106"/>
-      <c r="U84" s="106"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="118"/>
+      <c r="K84" s="118"/>
+      <c r="L84" s="118"/>
+      <c r="M84" s="118"/>
+      <c r="N84" s="118"/>
+      <c r="O84" s="118"/>
+      <c r="P84" s="118"/>
+      <c r="Q84" s="118"/>
+      <c r="R84" s="118"/>
+      <c r="S84" s="118"/>
+      <c r="T84" s="118"/>
+      <c r="U84" s="118"/>
       <c r="V84" s="17"/>
       <c r="W84" s="17"/>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="17"/>
-      <c r="AB84" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC84" s="82"/>
-      <c r="AD84" s="82"/>
-      <c r="AE84" s="82"/>
-      <c r="AF84" s="82"/>
-      <c r="AG84" s="82"/>
-      <c r="AH84" s="82"/>
-      <c r="AI84" s="82"/>
-      <c r="AJ84" s="82"/>
-      <c r="AK84" s="82"/>
-      <c r="AL84" s="82"/>
-      <c r="AM84" s="82"/>
-      <c r="AN84" s="82"/>
-      <c r="AO84" s="82"/>
-      <c r="AP84" s="82"/>
-      <c r="AQ84" s="82"/>
-      <c r="AR84" s="82"/>
-      <c r="AS84" s="82"/>
-      <c r="AT84" s="82"/>
-      <c r="AU84" s="82"/>
-      <c r="AV84" s="82"/>
-      <c r="AW84" s="82"/>
-      <c r="AX84" s="82"/>
-      <c r="AY84" s="75"/>
-      <c r="AZ84" s="75"/>
-      <c r="BA84" s="75"/>
-      <c r="BB84" s="75"/>
-      <c r="BC84" s="75"/>
-      <c r="BD84" s="75"/>
-      <c r="BE84" s="75"/>
-      <c r="BF84" s="75"/>
-      <c r="BG84" s="75"/>
-      <c r="BH84" s="75"/>
-      <c r="BI84" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ84" s="76"/>
-      <c r="BK84" s="76"/>
-      <c r="BL84" s="76"/>
-      <c r="BM84" s="76"/>
-      <c r="BN84" s="76"/>
-      <c r="BO84" s="76"/>
-      <c r="BP84" s="76"/>
-      <c r="BQ84" s="76"/>
-      <c r="BR84" s="76"/>
-      <c r="BS84" s="76"/>
-      <c r="BT84" s="76"/>
-      <c r="BU84" s="76"/>
-      <c r="BV84" s="76"/>
-      <c r="BW84" s="76"/>
-      <c r="BX84" s="76"/>
-      <c r="BY84" s="76"/>
-      <c r="BZ84" s="76"/>
-      <c r="CA84" s="76"/>
-      <c r="CB84" s="76"/>
-      <c r="CC84" s="77"/>
-      <c r="CD84" s="77"/>
-      <c r="CE84" s="77"/>
-      <c r="CF84" s="77"/>
+      <c r="AB84" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC84" s="79"/>
+      <c r="AD84" s="79"/>
+      <c r="AE84" s="79"/>
+      <c r="AF84" s="79"/>
+      <c r="AG84" s="79"/>
+      <c r="AH84" s="79"/>
+      <c r="AI84" s="79"/>
+      <c r="AJ84" s="79"/>
+      <c r="AK84" s="79"/>
+      <c r="AL84" s="79"/>
+      <c r="AM84" s="79"/>
+      <c r="AN84" s="79"/>
+      <c r="AO84" s="79"/>
+      <c r="AP84" s="79"/>
+      <c r="AQ84" s="79"/>
+      <c r="AR84" s="79"/>
+      <c r="AS84" s="79"/>
+      <c r="AT84" s="79"/>
+      <c r="AU84" s="79"/>
+      <c r="AV84" s="79"/>
+      <c r="AW84" s="79"/>
+      <c r="AX84" s="79"/>
+      <c r="AY84" s="80"/>
+      <c r="AZ84" s="80"/>
+      <c r="BA84" s="80"/>
+      <c r="BB84" s="80"/>
+      <c r="BC84" s="80"/>
+      <c r="BD84" s="80"/>
+      <c r="BE84" s="80"/>
+      <c r="BF84" s="80"/>
+      <c r="BG84" s="80"/>
+      <c r="BH84" s="80"/>
+      <c r="BI84" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ84" s="81"/>
+      <c r="BK84" s="81"/>
+      <c r="BL84" s="81"/>
+      <c r="BM84" s="81"/>
+      <c r="BN84" s="81"/>
+      <c r="BO84" s="81"/>
+      <c r="BP84" s="81"/>
+      <c r="BQ84" s="81"/>
+      <c r="BR84" s="81"/>
+      <c r="BS84" s="81"/>
+      <c r="BT84" s="81"/>
+      <c r="BU84" s="81"/>
+      <c r="BV84" s="81"/>
+      <c r="BW84" s="81"/>
+      <c r="BX84" s="81"/>
+      <c r="BY84" s="81"/>
+      <c r="BZ84" s="81"/>
+      <c r="CA84" s="81"/>
+      <c r="CB84" s="81"/>
+      <c r="CC84" s="82"/>
+      <c r="CD84" s="82"/>
+      <c r="CE84" s="82"/>
+      <c r="CF84" s="82"/>
     </row>
     <row r="85" spans="1:84" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
-      <c r="B85" s="106"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="106"/>
-      <c r="E85" s="106"/>
-      <c r="F85" s="106"/>
-      <c r="G85" s="106"/>
-      <c r="H85" s="106"/>
-      <c r="I85" s="106"/>
-      <c r="J85" s="106"/>
-      <c r="K85" s="106"/>
-      <c r="L85" s="106"/>
-      <c r="M85" s="106"/>
-      <c r="N85" s="106"/>
-      <c r="O85" s="106"/>
-      <c r="P85" s="106"/>
-      <c r="Q85" s="106"/>
-      <c r="R85" s="106"/>
-      <c r="S85" s="106"/>
-      <c r="T85" s="106"/>
-      <c r="U85" s="106"/>
+      <c r="A85" s="118"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="118"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118"/>
+      <c r="M85" s="118"/>
+      <c r="N85" s="118"/>
+      <c r="O85" s="118"/>
+      <c r="P85" s="118"/>
+      <c r="Q85" s="118"/>
+      <c r="R85" s="118"/>
+      <c r="S85" s="118"/>
+      <c r="T85" s="118"/>
+      <c r="U85" s="118"/>
       <c r="V85" s="17"/>
       <c r="W85" s="17"/>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="17"/>
-      <c r="AB85" s="82"/>
-      <c r="AC85" s="82"/>
-      <c r="AD85" s="82"/>
-      <c r="AE85" s="82"/>
-      <c r="AF85" s="82"/>
-      <c r="AG85" s="82"/>
-      <c r="AH85" s="82"/>
-      <c r="AI85" s="82"/>
-      <c r="AJ85" s="82"/>
-      <c r="AK85" s="82"/>
-      <c r="AL85" s="82"/>
-      <c r="AM85" s="82"/>
-      <c r="AN85" s="82"/>
-      <c r="AO85" s="82"/>
-      <c r="AP85" s="82"/>
-      <c r="AQ85" s="82"/>
-      <c r="AR85" s="82"/>
-      <c r="AS85" s="82"/>
-      <c r="AT85" s="82"/>
-      <c r="AU85" s="82"/>
-      <c r="AV85" s="82"/>
-      <c r="AW85" s="82"/>
-      <c r="AX85" s="82"/>
-      <c r="AY85" s="78"/>
-      <c r="AZ85" s="78"/>
-      <c r="BA85" s="78"/>
-      <c r="BB85" s="78"/>
-      <c r="BC85" s="78"/>
-      <c r="BD85" s="78"/>
-      <c r="BE85" s="78"/>
-      <c r="BF85" s="78"/>
-      <c r="BG85" s="78"/>
-      <c r="BH85" s="78"/>
-      <c r="BI85" s="78"/>
-      <c r="BJ85" s="78"/>
-      <c r="BK85" s="78"/>
-      <c r="BL85" s="78"/>
-      <c r="BM85" s="78"/>
-      <c r="BN85" s="78"/>
-      <c r="BO85" s="78"/>
-      <c r="BP85" s="78"/>
-      <c r="BQ85" s="78"/>
-      <c r="BR85" s="78"/>
-      <c r="BS85" s="78"/>
-      <c r="BT85" s="78"/>
-      <c r="BU85" s="78"/>
-      <c r="BV85" s="78"/>
-      <c r="BW85" s="78"/>
-      <c r="BX85" s="78"/>
-      <c r="BY85" s="78"/>
-      <c r="BZ85" s="78"/>
-      <c r="CA85" s="78"/>
-      <c r="CB85" s="78"/>
-      <c r="CC85" s="79"/>
-      <c r="CD85" s="79"/>
-      <c r="CE85" s="79"/>
-      <c r="CF85" s="79"/>
+      <c r="AB85" s="79"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
+      <c r="AF85" s="79"/>
+      <c r="AG85" s="79"/>
+      <c r="AH85" s="79"/>
+      <c r="AI85" s="79"/>
+      <c r="AJ85" s="79"/>
+      <c r="AK85" s="79"/>
+      <c r="AL85" s="79"/>
+      <c r="AM85" s="79"/>
+      <c r="AN85" s="79"/>
+      <c r="AO85" s="79"/>
+      <c r="AP85" s="79"/>
+      <c r="AQ85" s="79"/>
+      <c r="AR85" s="79"/>
+      <c r="AS85" s="79"/>
+      <c r="AT85" s="79"/>
+      <c r="AU85" s="79"/>
+      <c r="AV85" s="79"/>
+      <c r="AW85" s="79"/>
+      <c r="AX85" s="79"/>
+      <c r="AY85" s="83"/>
+      <c r="AZ85" s="83"/>
+      <c r="BA85" s="83"/>
+      <c r="BB85" s="83"/>
+      <c r="BC85" s="83"/>
+      <c r="BD85" s="83"/>
+      <c r="BE85" s="83"/>
+      <c r="BF85" s="83"/>
+      <c r="BG85" s="83"/>
+      <c r="BH85" s="83"/>
+      <c r="BI85" s="83"/>
+      <c r="BJ85" s="83"/>
+      <c r="BK85" s="83"/>
+      <c r="BL85" s="83"/>
+      <c r="BM85" s="83"/>
+      <c r="BN85" s="83"/>
+      <c r="BO85" s="83"/>
+      <c r="BP85" s="83"/>
+      <c r="BQ85" s="83"/>
+      <c r="BR85" s="83"/>
+      <c r="BS85" s="83"/>
+      <c r="BT85" s="83"/>
+      <c r="BU85" s="83"/>
+      <c r="BV85" s="83"/>
+      <c r="BW85" s="83"/>
+      <c r="BX85" s="83"/>
+      <c r="BY85" s="83"/>
+      <c r="BZ85" s="83"/>
+      <c r="CA85" s="83"/>
+      <c r="CB85" s="83"/>
+      <c r="CC85" s="84"/>
+      <c r="CD85" s="84"/>
+      <c r="CE85" s="84"/>
+      <c r="CF85" s="84"/>
     </row>
     <row r="86" spans="1:84" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="106"/>
-      <c r="G86" s="106"/>
-      <c r="H86" s="106"/>
-      <c r="I86" s="106"/>
-      <c r="J86" s="106"/>
-      <c r="K86" s="106"/>
-      <c r="L86" s="106"/>
-      <c r="M86" s="106"/>
-      <c r="N86" s="106"/>
-      <c r="O86" s="106"/>
-      <c r="P86" s="106"/>
-      <c r="Q86" s="106"/>
-      <c r="R86" s="106"/>
-      <c r="S86" s="106"/>
-      <c r="T86" s="106"/>
-      <c r="U86" s="106"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+      <c r="J86" s="118"/>
+      <c r="K86" s="118"/>
+      <c r="L86" s="118"/>
+      <c r="M86" s="118"/>
+      <c r="N86" s="118"/>
+      <c r="O86" s="118"/>
+      <c r="P86" s="118"/>
+      <c r="Q86" s="118"/>
+      <c r="R86" s="118"/>
+      <c r="S86" s="118"/>
+      <c r="T86" s="118"/>
+      <c r="U86" s="118"/>
       <c r="V86" s="17"/>
       <c r="W86" s="17"/>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="17"/>
-      <c r="AB86" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC86" s="82"/>
-      <c r="AD86" s="82"/>
-      <c r="AE86" s="82"/>
-      <c r="AF86" s="82"/>
-      <c r="AG86" s="82"/>
-      <c r="AH86" s="82"/>
-      <c r="AI86" s="82"/>
-      <c r="AJ86" s="82"/>
-      <c r="AK86" s="82"/>
-      <c r="AL86" s="82"/>
-      <c r="AM86" s="82"/>
-      <c r="AN86" s="82"/>
-      <c r="AO86" s="82"/>
-      <c r="AP86" s="82"/>
-      <c r="AQ86" s="82"/>
-      <c r="AR86" s="82"/>
-      <c r="AS86" s="82"/>
-      <c r="AT86" s="82"/>
-      <c r="AU86" s="82"/>
-      <c r="AV86" s="82"/>
-      <c r="AW86" s="82"/>
-      <c r="AX86" s="82"/>
-      <c r="AY86" s="75"/>
-      <c r="AZ86" s="75"/>
-      <c r="BA86" s="75"/>
-      <c r="BB86" s="75"/>
-      <c r="BC86" s="75"/>
-      <c r="BD86" s="75"/>
-      <c r="BE86" s="75"/>
-      <c r="BF86" s="75"/>
-      <c r="BG86" s="75"/>
-      <c r="BH86" s="75"/>
-      <c r="BI86" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ86" s="76"/>
-      <c r="BK86" s="76"/>
-      <c r="BL86" s="76"/>
-      <c r="BM86" s="76"/>
-      <c r="BN86" s="76"/>
-      <c r="BO86" s="76"/>
-      <c r="BP86" s="76"/>
-      <c r="BQ86" s="76"/>
-      <c r="BR86" s="76"/>
-      <c r="BS86" s="76"/>
-      <c r="BT86" s="76"/>
-      <c r="BU86" s="76"/>
-      <c r="BV86" s="76"/>
-      <c r="BW86" s="76"/>
-      <c r="BX86" s="76"/>
-      <c r="BY86" s="76"/>
-      <c r="BZ86" s="76"/>
-      <c r="CA86" s="76"/>
-      <c r="CB86" s="76"/>
-      <c r="CC86" s="77"/>
-      <c r="CD86" s="77"/>
-      <c r="CE86" s="77"/>
-      <c r="CF86" s="77"/>
+      <c r="AB86" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC86" s="79"/>
+      <c r="AD86" s="79"/>
+      <c r="AE86" s="79"/>
+      <c r="AF86" s="79"/>
+      <c r="AG86" s="79"/>
+      <c r="AH86" s="79"/>
+      <c r="AI86" s="79"/>
+      <c r="AJ86" s="79"/>
+      <c r="AK86" s="79"/>
+      <c r="AL86" s="79"/>
+      <c r="AM86" s="79"/>
+      <c r="AN86" s="79"/>
+      <c r="AO86" s="79"/>
+      <c r="AP86" s="79"/>
+      <c r="AQ86" s="79"/>
+      <c r="AR86" s="79"/>
+      <c r="AS86" s="79"/>
+      <c r="AT86" s="79"/>
+      <c r="AU86" s="79"/>
+      <c r="AV86" s="79"/>
+      <c r="AW86" s="79"/>
+      <c r="AX86" s="79"/>
+      <c r="AY86" s="80"/>
+      <c r="AZ86" s="80"/>
+      <c r="BA86" s="80"/>
+      <c r="BB86" s="80"/>
+      <c r="BC86" s="80"/>
+      <c r="BD86" s="80"/>
+      <c r="BE86" s="80"/>
+      <c r="BF86" s="80"/>
+      <c r="BG86" s="80"/>
+      <c r="BH86" s="80"/>
+      <c r="BI86" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ86" s="81"/>
+      <c r="BK86" s="81"/>
+      <c r="BL86" s="81"/>
+      <c r="BM86" s="81"/>
+      <c r="BN86" s="81"/>
+      <c r="BO86" s="81"/>
+      <c r="BP86" s="81"/>
+      <c r="BQ86" s="81"/>
+      <c r="BR86" s="81"/>
+      <c r="BS86" s="81"/>
+      <c r="BT86" s="81"/>
+      <c r="BU86" s="81"/>
+      <c r="BV86" s="81"/>
+      <c r="BW86" s="81"/>
+      <c r="BX86" s="81"/>
+      <c r="BY86" s="81"/>
+      <c r="BZ86" s="81"/>
+      <c r="CA86" s="81"/>
+      <c r="CB86" s="81"/>
+      <c r="CC86" s="82"/>
+      <c r="CD86" s="82"/>
+      <c r="CE86" s="82"/>
+      <c r="CF86" s="82"/>
     </row>
     <row r="87" spans="1:84" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="106"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="106"/>
-      <c r="I87" s="106"/>
-      <c r="J87" s="106"/>
-      <c r="K87" s="106"/>
-      <c r="L87" s="106"/>
-      <c r="M87" s="106"/>
-      <c r="N87" s="106"/>
-      <c r="O87" s="106"/>
-      <c r="P87" s="106"/>
-      <c r="Q87" s="106"/>
-      <c r="R87" s="106"/>
-      <c r="S87" s="106"/>
-      <c r="T87" s="106"/>
-      <c r="U87" s="106"/>
+      <c r="A87" s="118"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="118"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="118"/>
+      <c r="J87" s="118"/>
+      <c r="K87" s="118"/>
+      <c r="L87" s="118"/>
+      <c r="M87" s="118"/>
+      <c r="N87" s="118"/>
+      <c r="O87" s="118"/>
+      <c r="P87" s="118"/>
+      <c r="Q87" s="118"/>
+      <c r="R87" s="118"/>
+      <c r="S87" s="118"/>
+      <c r="T87" s="118"/>
+      <c r="U87" s="118"/>
       <c r="V87" s="17"/>
       <c r="W87" s="17"/>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
       <c r="AA87" s="17"/>
-      <c r="AB87" s="82"/>
-      <c r="AC87" s="82"/>
-      <c r="AD87" s="82"/>
-      <c r="AE87" s="82"/>
-      <c r="AF87" s="82"/>
-      <c r="AG87" s="82"/>
-      <c r="AH87" s="82"/>
-      <c r="AI87" s="82"/>
-      <c r="AJ87" s="82"/>
-      <c r="AK87" s="82"/>
-      <c r="AL87" s="82"/>
-      <c r="AM87" s="82"/>
-      <c r="AN87" s="82"/>
-      <c r="AO87" s="82"/>
-      <c r="AP87" s="82"/>
-      <c r="AQ87" s="82"/>
-      <c r="AR87" s="82"/>
-      <c r="AS87" s="82"/>
-      <c r="AT87" s="82"/>
-      <c r="AU87" s="82"/>
-      <c r="AV87" s="82"/>
-      <c r="AW87" s="82"/>
-      <c r="AX87" s="82"/>
-      <c r="AY87" s="78"/>
-      <c r="AZ87" s="78"/>
-      <c r="BA87" s="78"/>
-      <c r="BB87" s="78"/>
-      <c r="BC87" s="78"/>
-      <c r="BD87" s="78"/>
-      <c r="BE87" s="78"/>
-      <c r="BF87" s="78"/>
-      <c r="BG87" s="78"/>
-      <c r="BH87" s="78"/>
-      <c r="BI87" s="78"/>
-      <c r="BJ87" s="78"/>
-      <c r="BK87" s="78"/>
-      <c r="BL87" s="78"/>
-      <c r="BM87" s="78"/>
-      <c r="BN87" s="78"/>
-      <c r="BO87" s="78"/>
-      <c r="BP87" s="78"/>
-      <c r="BQ87" s="78"/>
-      <c r="BR87" s="78"/>
-      <c r="BS87" s="78"/>
-      <c r="BT87" s="78"/>
-      <c r="BU87" s="78"/>
-      <c r="BV87" s="78"/>
-      <c r="BW87" s="78"/>
-      <c r="BX87" s="78"/>
-      <c r="BY87" s="78"/>
-      <c r="BZ87" s="78"/>
-      <c r="CA87" s="78"/>
-      <c r="CB87" s="78"/>
-      <c r="CC87" s="79"/>
-      <c r="CD87" s="79"/>
-      <c r="CE87" s="79"/>
-      <c r="CF87" s="79"/>
+      <c r="AB87" s="79"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="79"/>
+      <c r="AE87" s="79"/>
+      <c r="AF87" s="79"/>
+      <c r="AG87" s="79"/>
+      <c r="AH87" s="79"/>
+      <c r="AI87" s="79"/>
+      <c r="AJ87" s="79"/>
+      <c r="AK87" s="79"/>
+      <c r="AL87" s="79"/>
+      <c r="AM87" s="79"/>
+      <c r="AN87" s="79"/>
+      <c r="AO87" s="79"/>
+      <c r="AP87" s="79"/>
+      <c r="AQ87" s="79"/>
+      <c r="AR87" s="79"/>
+      <c r="AS87" s="79"/>
+      <c r="AT87" s="79"/>
+      <c r="AU87" s="79"/>
+      <c r="AV87" s="79"/>
+      <c r="AW87" s="79"/>
+      <c r="AX87" s="79"/>
+      <c r="AY87" s="83"/>
+      <c r="AZ87" s="83"/>
+      <c r="BA87" s="83"/>
+      <c r="BB87" s="83"/>
+      <c r="BC87" s="83"/>
+      <c r="BD87" s="83"/>
+      <c r="BE87" s="83"/>
+      <c r="BF87" s="83"/>
+      <c r="BG87" s="83"/>
+      <c r="BH87" s="83"/>
+      <c r="BI87" s="83"/>
+      <c r="BJ87" s="83"/>
+      <c r="BK87" s="83"/>
+      <c r="BL87" s="83"/>
+      <c r="BM87" s="83"/>
+      <c r="BN87" s="83"/>
+      <c r="BO87" s="83"/>
+      <c r="BP87" s="83"/>
+      <c r="BQ87" s="83"/>
+      <c r="BR87" s="83"/>
+      <c r="BS87" s="83"/>
+      <c r="BT87" s="83"/>
+      <c r="BU87" s="83"/>
+      <c r="BV87" s="83"/>
+      <c r="BW87" s="83"/>
+      <c r="BX87" s="83"/>
+      <c r="BY87" s="83"/>
+      <c r="BZ87" s="83"/>
+      <c r="CA87" s="83"/>
+      <c r="CB87" s="83"/>
+      <c r="CC87" s="84"/>
+      <c r="CD87" s="84"/>
+      <c r="CE87" s="84"/>
+      <c r="CF87" s="84"/>
     </row>
     <row r="88" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A88" s="106"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="106"/>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
-      <c r="F88" s="106"/>
-      <c r="G88" s="106"/>
-      <c r="H88" s="106"/>
-      <c r="I88" s="106"/>
-      <c r="J88" s="106"/>
-      <c r="K88" s="106"/>
-      <c r="L88" s="106"/>
-      <c r="M88" s="106"/>
-      <c r="N88" s="106"/>
-      <c r="O88" s="106"/>
-      <c r="P88" s="106"/>
-      <c r="Q88" s="106"/>
-      <c r="R88" s="106"/>
-      <c r="S88" s="106"/>
-      <c r="T88" s="106"/>
-      <c r="U88" s="106"/>
+      <c r="A88" s="118"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+      <c r="M88" s="118"/>
+      <c r="N88" s="118"/>
+      <c r="O88" s="118"/>
+      <c r="P88" s="118"/>
+      <c r="Q88" s="118"/>
+      <c r="R88" s="118"/>
+      <c r="S88" s="118"/>
+      <c r="T88" s="118"/>
+      <c r="U88" s="118"/>
       <c r="V88" s="17"/>
       <c r="W88" s="17"/>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
       <c r="AA88" s="17"/>
-      <c r="AB88" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC88" s="90"/>
-      <c r="AD88" s="90"/>
-      <c r="AE88" s="90"/>
-      <c r="AF88" s="90"/>
-      <c r="AG88" s="90"/>
-      <c r="AH88" s="90"/>
-      <c r="AI88" s="90"/>
-      <c r="AJ88" s="90"/>
-      <c r="AK88" s="90"/>
-      <c r="AL88" s="90"/>
-      <c r="AM88" s="90"/>
-      <c r="AN88" s="90"/>
-      <c r="AO88" s="90"/>
-      <c r="AP88" s="90"/>
-      <c r="AQ88" s="90"/>
-      <c r="AR88" s="90"/>
-      <c r="AS88" s="90"/>
-      <c r="AT88" s="90"/>
-      <c r="AU88" s="90"/>
-      <c r="AV88" s="90"/>
-      <c r="AW88" s="90"/>
-      <c r="AX88" s="90"/>
-      <c r="AY88" s="91"/>
-      <c r="AZ88" s="91"/>
-      <c r="BA88" s="91"/>
-      <c r="BB88" s="91"/>
-      <c r="BC88" s="91"/>
-      <c r="BD88" s="91"/>
-      <c r="BE88" s="91"/>
-      <c r="BF88" s="91"/>
-      <c r="BG88" s="91"/>
-      <c r="BH88" s="91"/>
-      <c r="BI88" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ88" s="92"/>
-      <c r="BK88" s="92"/>
-      <c r="BL88" s="92"/>
-      <c r="BM88" s="92"/>
-      <c r="BN88" s="92"/>
-      <c r="BO88" s="92"/>
-      <c r="BP88" s="92"/>
-      <c r="BQ88" s="92"/>
-      <c r="BR88" s="92"/>
-      <c r="BS88" s="92"/>
-      <c r="BT88" s="92"/>
-      <c r="BU88" s="92"/>
-      <c r="BV88" s="92"/>
-      <c r="BW88" s="92"/>
-      <c r="BX88" s="92"/>
-      <c r="BY88" s="92"/>
-      <c r="BZ88" s="92"/>
-      <c r="CA88" s="92"/>
-      <c r="CB88" s="92"/>
-      <c r="CC88" s="93"/>
-      <c r="CD88" s="93"/>
-      <c r="CE88" s="93"/>
-      <c r="CF88" s="93"/>
+      <c r="AB88" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC88" s="85"/>
+      <c r="AD88" s="85"/>
+      <c r="AE88" s="85"/>
+      <c r="AF88" s="85"/>
+      <c r="AG88" s="85"/>
+      <c r="AH88" s="85"/>
+      <c r="AI88" s="85"/>
+      <c r="AJ88" s="85"/>
+      <c r="AK88" s="85"/>
+      <c r="AL88" s="85"/>
+      <c r="AM88" s="85"/>
+      <c r="AN88" s="85"/>
+      <c r="AO88" s="85"/>
+      <c r="AP88" s="85"/>
+      <c r="AQ88" s="85"/>
+      <c r="AR88" s="85"/>
+      <c r="AS88" s="85"/>
+      <c r="AT88" s="85"/>
+      <c r="AU88" s="85"/>
+      <c r="AV88" s="85"/>
+      <c r="AW88" s="85"/>
+      <c r="AX88" s="85"/>
+      <c r="AY88" s="86"/>
+      <c r="AZ88" s="86"/>
+      <c r="BA88" s="86"/>
+      <c r="BB88" s="86"/>
+      <c r="BC88" s="86"/>
+      <c r="BD88" s="86"/>
+      <c r="BE88" s="86"/>
+      <c r="BF88" s="86"/>
+      <c r="BG88" s="86"/>
+      <c r="BH88" s="86"/>
+      <c r="BI88" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ88" s="87"/>
+      <c r="BK88" s="87"/>
+      <c r="BL88" s="87"/>
+      <c r="BM88" s="87"/>
+      <c r="BN88" s="87"/>
+      <c r="BO88" s="87"/>
+      <c r="BP88" s="87"/>
+      <c r="BQ88" s="87"/>
+      <c r="BR88" s="87"/>
+      <c r="BS88" s="87"/>
+      <c r="BT88" s="87"/>
+      <c r="BU88" s="87"/>
+      <c r="BV88" s="87"/>
+      <c r="BW88" s="87"/>
+      <c r="BX88" s="87"/>
+      <c r="BY88" s="87"/>
+      <c r="BZ88" s="87"/>
+      <c r="CA88" s="87"/>
+      <c r="CB88" s="87"/>
+      <c r="CC88" s="88"/>
+      <c r="CD88" s="88"/>
+      <c r="CE88" s="88"/>
+      <c r="CF88" s="88"/>
     </row>
     <row r="89" spans="1:84" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="106"/>
-      <c r="E89" s="106"/>
-      <c r="F89" s="106"/>
-      <c r="G89" s="106"/>
-      <c r="H89" s="106"/>
-      <c r="I89" s="106"/>
-      <c r="J89" s="106"/>
-      <c r="K89" s="106"/>
-      <c r="L89" s="106"/>
-      <c r="M89" s="106"/>
-      <c r="N89" s="106"/>
-      <c r="O89" s="106"/>
-      <c r="P89" s="106"/>
-      <c r="Q89" s="106"/>
-      <c r="R89" s="106"/>
-      <c r="S89" s="106"/>
-      <c r="T89" s="106"/>
-      <c r="U89" s="106"/>
+      <c r="A89" s="118"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="118"/>
+      <c r="K89" s="118"/>
+      <c r="L89" s="118"/>
+      <c r="M89" s="118"/>
+      <c r="N89" s="118"/>
+      <c r="O89" s="118"/>
+      <c r="P89" s="118"/>
+      <c r="Q89" s="118"/>
+      <c r="R89" s="118"/>
+      <c r="S89" s="118"/>
+      <c r="T89" s="118"/>
+      <c r="U89" s="118"/>
       <c r="V89" s="17"/>
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
       <c r="AA89" s="17"/>
-      <c r="AB89" s="90"/>
-      <c r="AC89" s="90"/>
-      <c r="AD89" s="90"/>
-      <c r="AE89" s="90"/>
-      <c r="AF89" s="90"/>
-      <c r="AG89" s="90"/>
-      <c r="AH89" s="90"/>
-      <c r="AI89" s="90"/>
-      <c r="AJ89" s="90"/>
-      <c r="AK89" s="90"/>
-      <c r="AL89" s="90"/>
-      <c r="AM89" s="90"/>
-      <c r="AN89" s="90"/>
-      <c r="AO89" s="90"/>
-      <c r="AP89" s="90"/>
-      <c r="AQ89" s="90"/>
-      <c r="AR89" s="90"/>
-      <c r="AS89" s="90"/>
-      <c r="AT89" s="90"/>
-      <c r="AU89" s="90"/>
-      <c r="AV89" s="90"/>
-      <c r="AW89" s="90"/>
-      <c r="AX89" s="90"/>
-      <c r="AY89" s="94"/>
-      <c r="AZ89" s="94"/>
-      <c r="BA89" s="94"/>
-      <c r="BB89" s="94"/>
-      <c r="BC89" s="94"/>
-      <c r="BD89" s="94"/>
-      <c r="BE89" s="94"/>
-      <c r="BF89" s="94"/>
-      <c r="BG89" s="94"/>
-      <c r="BH89" s="94"/>
-      <c r="BI89" s="94"/>
-      <c r="BJ89" s="94"/>
-      <c r="BK89" s="94"/>
-      <c r="BL89" s="94"/>
-      <c r="BM89" s="94"/>
-      <c r="BN89" s="94"/>
-      <c r="BO89" s="94"/>
-      <c r="BP89" s="94"/>
-      <c r="BQ89" s="94"/>
-      <c r="BR89" s="94"/>
-      <c r="BS89" s="94"/>
-      <c r="BT89" s="94"/>
-      <c r="BU89" s="94"/>
-      <c r="BV89" s="94"/>
-      <c r="BW89" s="94"/>
-      <c r="BX89" s="94"/>
-      <c r="BY89" s="94"/>
-      <c r="BZ89" s="94"/>
-      <c r="CA89" s="94"/>
-      <c r="CB89" s="94"/>
-      <c r="CC89" s="95"/>
-      <c r="CD89" s="95"/>
-      <c r="CE89" s="95"/>
-      <c r="CF89" s="95"/>
+      <c r="AB89" s="85"/>
+      <c r="AC89" s="85"/>
+      <c r="AD89" s="85"/>
+      <c r="AE89" s="85"/>
+      <c r="AF89" s="85"/>
+      <c r="AG89" s="85"/>
+      <c r="AH89" s="85"/>
+      <c r="AI89" s="85"/>
+      <c r="AJ89" s="85"/>
+      <c r="AK89" s="85"/>
+      <c r="AL89" s="85"/>
+      <c r="AM89" s="85"/>
+      <c r="AN89" s="85"/>
+      <c r="AO89" s="85"/>
+      <c r="AP89" s="85"/>
+      <c r="AQ89" s="85"/>
+      <c r="AR89" s="85"/>
+      <c r="AS89" s="85"/>
+      <c r="AT89" s="85"/>
+      <c r="AU89" s="85"/>
+      <c r="AV89" s="85"/>
+      <c r="AW89" s="85"/>
+      <c r="AX89" s="85"/>
+      <c r="AY89" s="89"/>
+      <c r="AZ89" s="89"/>
+      <c r="BA89" s="89"/>
+      <c r="BB89" s="89"/>
+      <c r="BC89" s="89"/>
+      <c r="BD89" s="89"/>
+      <c r="BE89" s="89"/>
+      <c r="BF89" s="89"/>
+      <c r="BG89" s="89"/>
+      <c r="BH89" s="89"/>
+      <c r="BI89" s="89"/>
+      <c r="BJ89" s="89"/>
+      <c r="BK89" s="89"/>
+      <c r="BL89" s="89"/>
+      <c r="BM89" s="89"/>
+      <c r="BN89" s="89"/>
+      <c r="BO89" s="89"/>
+      <c r="BP89" s="89"/>
+      <c r="BQ89" s="89"/>
+      <c r="BR89" s="89"/>
+      <c r="BS89" s="89"/>
+      <c r="BT89" s="89"/>
+      <c r="BU89" s="89"/>
+      <c r="BV89" s="89"/>
+      <c r="BW89" s="89"/>
+      <c r="BX89" s="89"/>
+      <c r="BY89" s="89"/>
+      <c r="BZ89" s="89"/>
+      <c r="CA89" s="89"/>
+      <c r="CB89" s="89"/>
+      <c r="CC89" s="90"/>
+      <c r="CD89" s="90"/>
+      <c r="CE89" s="90"/>
+      <c r="CF89" s="90"/>
     </row>
     <row r="90" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
-      <c r="F90" s="106"/>
-      <c r="G90" s="106"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
-      <c r="J90" s="106"/>
-      <c r="K90" s="106"/>
-      <c r="L90" s="106"/>
-      <c r="M90" s="106"/>
-      <c r="N90" s="106"/>
-      <c r="O90" s="106"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="106"/>
-      <c r="R90" s="106"/>
-      <c r="S90" s="106"/>
-      <c r="T90" s="106"/>
-      <c r="U90" s="106"/>
+      <c r="A90" s="118"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="118"/>
+      <c r="K90" s="118"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="118"/>
+      <c r="N90" s="118"/>
+      <c r="O90" s="118"/>
+      <c r="P90" s="118"/>
+      <c r="Q90" s="118"/>
+      <c r="R90" s="118"/>
+      <c r="S90" s="118"/>
+      <c r="T90" s="118"/>
+      <c r="U90" s="118"/>
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
       <c r="AA90" s="17"/>
-      <c r="AB90" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC90" s="111"/>
-      <c r="AD90" s="111"/>
-      <c r="AE90" s="111"/>
-      <c r="AF90" s="111"/>
-      <c r="AG90" s="111"/>
-      <c r="AH90" s="111"/>
-      <c r="AI90" s="111"/>
-      <c r="AJ90" s="111"/>
-      <c r="AK90" s="111"/>
-      <c r="AL90" s="111"/>
-      <c r="AM90" s="111"/>
-      <c r="AN90" s="111"/>
-      <c r="AO90" s="111"/>
-      <c r="AP90" s="111"/>
-      <c r="AQ90" s="111"/>
-      <c r="AR90" s="111"/>
-      <c r="AS90" s="111"/>
-      <c r="AT90" s="111"/>
-      <c r="AU90" s="111"/>
-      <c r="AV90" s="111"/>
-      <c r="AW90" s="111"/>
-      <c r="AX90" s="111"/>
-      <c r="AY90" s="112"/>
-      <c r="AZ90" s="112"/>
-      <c r="BA90" s="112"/>
-      <c r="BB90" s="112"/>
-      <c r="BC90" s="112"/>
-      <c r="BD90" s="112"/>
-      <c r="BE90" s="112"/>
-      <c r="BF90" s="112"/>
-      <c r="BG90" s="112"/>
-      <c r="BH90" s="112"/>
-      <c r="BI90" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ90" s="113"/>
-      <c r="BK90" s="113"/>
-      <c r="BL90" s="113"/>
-      <c r="BM90" s="113"/>
-      <c r="BN90" s="113"/>
-      <c r="BO90" s="113"/>
-      <c r="BP90" s="113"/>
-      <c r="BQ90" s="113"/>
-      <c r="BR90" s="113"/>
-      <c r="BS90" s="113"/>
-      <c r="BT90" s="113"/>
-      <c r="BU90" s="113"/>
-      <c r="BV90" s="113"/>
-      <c r="BW90" s="113"/>
-      <c r="BX90" s="113"/>
-      <c r="BY90" s="113"/>
-      <c r="BZ90" s="113"/>
-      <c r="CA90" s="113"/>
-      <c r="CB90" s="114"/>
-      <c r="CC90" s="114"/>
-      <c r="CD90" s="114"/>
-      <c r="CE90" s="114"/>
-      <c r="CF90" s="114"/>
+      <c r="AB90" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC90" s="123"/>
+      <c r="AD90" s="123"/>
+      <c r="AE90" s="123"/>
+      <c r="AF90" s="123"/>
+      <c r="AG90" s="123"/>
+      <c r="AH90" s="123"/>
+      <c r="AI90" s="123"/>
+      <c r="AJ90" s="123"/>
+      <c r="AK90" s="123"/>
+      <c r="AL90" s="123"/>
+      <c r="AM90" s="123"/>
+      <c r="AN90" s="123"/>
+      <c r="AO90" s="123"/>
+      <c r="AP90" s="123"/>
+      <c r="AQ90" s="123"/>
+      <c r="AR90" s="123"/>
+      <c r="AS90" s="123"/>
+      <c r="AT90" s="123"/>
+      <c r="AU90" s="123"/>
+      <c r="AV90" s="123"/>
+      <c r="AW90" s="123"/>
+      <c r="AX90" s="123"/>
+      <c r="AY90" s="124"/>
+      <c r="AZ90" s="124"/>
+      <c r="BA90" s="124"/>
+      <c r="BB90" s="124"/>
+      <c r="BC90" s="124"/>
+      <c r="BD90" s="124"/>
+      <c r="BE90" s="124"/>
+      <c r="BF90" s="124"/>
+      <c r="BG90" s="124"/>
+      <c r="BH90" s="124"/>
+      <c r="BI90" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ90" s="125"/>
+      <c r="BK90" s="125"/>
+      <c r="BL90" s="125"/>
+      <c r="BM90" s="125"/>
+      <c r="BN90" s="125"/>
+      <c r="BO90" s="125"/>
+      <c r="BP90" s="125"/>
+      <c r="BQ90" s="125"/>
+      <c r="BR90" s="125"/>
+      <c r="BS90" s="125"/>
+      <c r="BT90" s="125"/>
+      <c r="BU90" s="125"/>
+      <c r="BV90" s="125"/>
+      <c r="BW90" s="125"/>
+      <c r="BX90" s="125"/>
+      <c r="BY90" s="125"/>
+      <c r="BZ90" s="125"/>
+      <c r="CA90" s="125"/>
+      <c r="CB90" s="126"/>
+      <c r="CC90" s="126"/>
+      <c r="CD90" s="126"/>
+      <c r="CE90" s="126"/>
+      <c r="CF90" s="126"/>
     </row>
     <row r="91" spans="1:84" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="106"/>
-      <c r="L91" s="106"/>
-      <c r="M91" s="106"/>
-      <c r="N91" s="106"/>
-      <c r="O91" s="106"/>
-      <c r="P91" s="106"/>
-      <c r="Q91" s="106"/>
-      <c r="R91" s="106"/>
-      <c r="S91" s="106"/>
-      <c r="T91" s="106"/>
-      <c r="U91" s="106"/>
+      <c r="A91" s="118"/>
+      <c r="B91" s="118"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="118"/>
+      <c r="N91" s="118"/>
+      <c r="O91" s="118"/>
+      <c r="P91" s="118"/>
+      <c r="Q91" s="118"/>
+      <c r="R91" s="118"/>
+      <c r="S91" s="118"/>
+      <c r="T91" s="118"/>
+      <c r="U91" s="118"/>
       <c r="V91" s="17"/>
       <c r="W91" s="17"/>
       <c r="X91" s="17"/>
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
       <c r="AA91" s="17"/>
-      <c r="AB91" s="111"/>
-      <c r="AC91" s="111"/>
-      <c r="AD91" s="111"/>
-      <c r="AE91" s="111"/>
-      <c r="AF91" s="111"/>
-      <c r="AG91" s="111"/>
-      <c r="AH91" s="111"/>
-      <c r="AI91" s="111"/>
-      <c r="AJ91" s="111"/>
-      <c r="AK91" s="111"/>
-      <c r="AL91" s="111"/>
-      <c r="AM91" s="111"/>
-      <c r="AN91" s="111"/>
-      <c r="AO91" s="111"/>
-      <c r="AP91" s="111"/>
-      <c r="AQ91" s="111"/>
-      <c r="AR91" s="111"/>
-      <c r="AS91" s="111"/>
-      <c r="AT91" s="111"/>
-      <c r="AU91" s="111"/>
-      <c r="AV91" s="111"/>
-      <c r="AW91" s="111"/>
-      <c r="AX91" s="111"/>
-      <c r="AY91" s="80"/>
-      <c r="AZ91" s="80"/>
-      <c r="BA91" s="80"/>
-      <c r="BB91" s="80"/>
-      <c r="BC91" s="80"/>
-      <c r="BD91" s="80"/>
-      <c r="BE91" s="80"/>
-      <c r="BF91" s="80"/>
-      <c r="BG91" s="80"/>
-      <c r="BH91" s="80"/>
-      <c r="BI91" s="80"/>
-      <c r="BJ91" s="80"/>
-      <c r="BK91" s="80"/>
-      <c r="BL91" s="80"/>
-      <c r="BM91" s="80"/>
-      <c r="BN91" s="80"/>
-      <c r="BO91" s="80"/>
-      <c r="BP91" s="80"/>
-      <c r="BQ91" s="80"/>
-      <c r="BR91" s="80"/>
-      <c r="BS91" s="80"/>
-      <c r="BT91" s="80"/>
-      <c r="BU91" s="80"/>
-      <c r="BV91" s="80"/>
-      <c r="BW91" s="80"/>
-      <c r="BX91" s="80"/>
-      <c r="BY91" s="80"/>
-      <c r="BZ91" s="80"/>
-      <c r="CA91" s="80"/>
-      <c r="CB91" s="81"/>
-      <c r="CC91" s="81"/>
-      <c r="CD91" s="81"/>
-      <c r="CE91" s="81"/>
-      <c r="CF91" s="81"/>
+      <c r="AB91" s="123"/>
+      <c r="AC91" s="123"/>
+      <c r="AD91" s="123"/>
+      <c r="AE91" s="123"/>
+      <c r="AF91" s="123"/>
+      <c r="AG91" s="123"/>
+      <c r="AH91" s="123"/>
+      <c r="AI91" s="123"/>
+      <c r="AJ91" s="123"/>
+      <c r="AK91" s="123"/>
+      <c r="AL91" s="123"/>
+      <c r="AM91" s="123"/>
+      <c r="AN91" s="123"/>
+      <c r="AO91" s="123"/>
+      <c r="AP91" s="123"/>
+      <c r="AQ91" s="123"/>
+      <c r="AR91" s="123"/>
+      <c r="AS91" s="123"/>
+      <c r="AT91" s="123"/>
+      <c r="AU91" s="123"/>
+      <c r="AV91" s="123"/>
+      <c r="AW91" s="123"/>
+      <c r="AX91" s="123"/>
+      <c r="AY91" s="77"/>
+      <c r="AZ91" s="77"/>
+      <c r="BA91" s="77"/>
+      <c r="BB91" s="77"/>
+      <c r="BC91" s="77"/>
+      <c r="BD91" s="77"/>
+      <c r="BE91" s="77"/>
+      <c r="BF91" s="77"/>
+      <c r="BG91" s="77"/>
+      <c r="BH91" s="77"/>
+      <c r="BI91" s="77"/>
+      <c r="BJ91" s="77"/>
+      <c r="BK91" s="77"/>
+      <c r="BL91" s="77"/>
+      <c r="BM91" s="77"/>
+      <c r="BN91" s="77"/>
+      <c r="BO91" s="77"/>
+      <c r="BP91" s="77"/>
+      <c r="BQ91" s="77"/>
+      <c r="BR91" s="77"/>
+      <c r="BS91" s="77"/>
+      <c r="BT91" s="77"/>
+      <c r="BU91" s="77"/>
+      <c r="BV91" s="77"/>
+      <c r="BW91" s="77"/>
+      <c r="BX91" s="77"/>
+      <c r="BY91" s="77"/>
+      <c r="BZ91" s="77"/>
+      <c r="CA91" s="77"/>
+      <c r="CB91" s="78"/>
+      <c r="CC91" s="78"/>
+      <c r="CD91" s="78"/>
+      <c r="CE91" s="78"/>
+      <c r="CF91" s="78"/>
     </row>
     <row r="92" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -9302,6 +9320,14 @@
     <mergeCell ref="AY67:BJ67"/>
     <mergeCell ref="BK67:CA67"/>
     <mergeCell ref="CB67:CF67"/>
+    <mergeCell ref="CC68:CF68"/>
+    <mergeCell ref="AY69:BJ70"/>
+    <mergeCell ref="BK69:CB70"/>
+    <mergeCell ref="CC69:CF70"/>
+    <mergeCell ref="CC78:CF79"/>
+    <mergeCell ref="BI74:CD74"/>
+    <mergeCell ref="CE74:CF74"/>
+    <mergeCell ref="AY75:CF77"/>
     <mergeCell ref="E70:O72"/>
     <mergeCell ref="P70:Z72"/>
     <mergeCell ref="AY71:BJ71"/>
@@ -9313,21 +9339,7 @@
     <mergeCell ref="CE72:CF73"/>
     <mergeCell ref="E73:O75"/>
     <mergeCell ref="P73:Z75"/>
-    <mergeCell ref="AY88:BH88"/>
-    <mergeCell ref="BI88:CB88"/>
-    <mergeCell ref="CC88:CF88"/>
-    <mergeCell ref="AY89:BH89"/>
-    <mergeCell ref="BI89:CB89"/>
-    <mergeCell ref="CC89:CF89"/>
-    <mergeCell ref="CC68:CF68"/>
-    <mergeCell ref="AY69:BJ70"/>
-    <mergeCell ref="BK69:CB70"/>
-    <mergeCell ref="CC69:CF70"/>
-    <mergeCell ref="CC78:CF79"/>
-    <mergeCell ref="BI74:CD74"/>
-    <mergeCell ref="CE74:CF74"/>
     <mergeCell ref="AB75:AX77"/>
-    <mergeCell ref="AY75:CF77"/>
     <mergeCell ref="F76:P76"/>
     <mergeCell ref="Q76:Z76"/>
     <mergeCell ref="AB78:AX80"/>
@@ -9362,6 +9374,12 @@
     <mergeCell ref="BI87:CB87"/>
     <mergeCell ref="CC87:CF87"/>
     <mergeCell ref="AB88:AX89"/>
+    <mergeCell ref="AY88:BH88"/>
+    <mergeCell ref="BI88:CB88"/>
+    <mergeCell ref="CC88:CF88"/>
+    <mergeCell ref="AY89:BH89"/>
+    <mergeCell ref="BI89:CB89"/>
+    <mergeCell ref="CC89:CF89"/>
     <mergeCell ref="A61:AA61"/>
     <mergeCell ref="AB61:AN61"/>
     <mergeCell ref="BC61:BK61"/>
